--- a/packages/server/src/arpa_reporter/data/treasury/project215218BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project215218BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\do.treas.gov\dfsres\isilon\Homeshare3\BerrocalF\XenProfile\Desktop\SLFRF P&amp;E Quarter 2 Bulk Files\UpdateTemplates.6.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline-my.sharepoint.com/personal/42853_icf_com/Documents/Bulk Upload/Templates/9.8/July Project Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D8316C7-52E0-4ABE-AD74-1A11C907A7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{4D8316C7-52E0-4ABE-AD74-1A11C907A7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EFCC05B-283A-4328-999B-D1327E0904D0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="90" windowWidth="29040" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 " sheetId="2" r:id="rId1"/>
@@ -367,12 +367,6 @@
     <t>Number_Affordable_Housing_Units__c</t>
   </si>
   <si>
-    <t>Q2_2022_Obligations__c</t>
-  </si>
-  <si>
-    <t>Q2_2022_Expenditures__c</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter the amount of program income earned.
 Currency field. 
 DO NOT include a "$" sign or commas "," when entering Amounts.
@@ -444,6 +438,12 @@
   </si>
   <si>
     <t>Version: 2022.06.21</t>
+  </si>
+  <si>
+    <t>Q3_2022_Obligations__c</t>
+  </si>
+  <si>
+    <t>Q3_2022_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -622,67 +622,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -691,6 +662,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,18 +910,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275FAA55-771D-4D64-A81A-E1231934DFE3}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="2" customWidth="1"/>
     <col min="2" max="5" width="35.625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="35.5" style="4" customWidth="1"/>
-    <col min="8" max="15" width="35.625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="35.625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="35.625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="35.5" style="2" customWidth="1"/>
+    <col min="8" max="18" width="35.625" style="2" customWidth="1"/>
     <col min="19" max="19" width="29" style="2" customWidth="1"/>
     <col min="20" max="23" width="25.125" style="2" customWidth="1"/>
     <col min="24" max="24" width="28.875" style="2" customWidth="1"/>
@@ -955,7 +933,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -990,10 +968,10 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1026,10 +1004,10 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="206.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1062,618 +1040,618 @@
       <c r="AF3" s="1"/>
     </row>
     <row r="4" spans="1:32" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>87</v>
+      <c r="G4" s="4" t="s">
+        <v>85</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>76</v>
+      <c r="K4" s="4" t="s">
+        <v>90</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>77</v>
+      <c r="L4" s="4" t="s">
+        <v>91</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Y4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AA4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AB4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AC4" s="7" t="s">
+      <c r="AC4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AD4" s="7" t="s">
+      <c r="AD4" s="4" t="s">
         <v>75</v>
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
     </row>
     <row r="5" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA5" s="7" t="s">
+      <c r="AA5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AB5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AC5" s="7" t="s">
+      <c r="AC5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AD5" s="7" t="s">
+      <c r="AD5" s="4" t="s">
         <v>66</v>
       </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
     <row r="6" spans="1:32" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>88</v>
+      <c r="G6" s="4" t="s">
+        <v>86</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="U6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="V6" s="15" t="s">
+      <c r="V6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="X6" s="15" t="s">
+      <c r="X6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Y6" s="15" t="s">
+      <c r="Y6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z6" s="15" t="s">
+      <c r="Z6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AA6" s="8" t="s">
+      <c r="AA6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AB6" s="15" t="s">
+      <c r="AB6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AC6" s="8" t="s">
+      <c r="AC6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AD6" s="8" t="s">
+      <c r="AD6" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
     </row>
     <row r="7" spans="1:32" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>89</v>
+      <c r="F7" s="12" t="s">
+        <v>87</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>90</v>
+      <c r="G7" s="12" t="s">
+        <v>88</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="K7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="L7" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="M7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="AD7" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="T7" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="V7" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="W7" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="X7" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y7" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z7" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB7" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC7" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD7" s="17" t="s">
-        <v>86</v>
       </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
-    <row r="8" spans="1:32" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-    </row>
-    <row r="9" spans="1:32" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-    </row>
-    <row r="10" spans="1:32" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+    <row r="8" spans="1:32" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-    </row>
-    <row r="11" spans="1:32" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+    </row>
+    <row r="11" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-    </row>
-    <row r="12" spans="1:32" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+    </row>
+    <row r="12" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-    </row>
-    <row r="13" spans="1:32" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+    </row>
+    <row r="13" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-    </row>
-    <row r="14" spans="1:32" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+    </row>
+    <row r="14" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -35209,21 +35187,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -35440,10 +35403,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35466,20 +35455,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/packages/server/src/arpa_reporter/data/treasury/project215218BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project215218BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline-my.sharepoint.com/personal/42853_icf_com/Documents/Bulk Upload/Templates/9.8/July Project Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 4 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{4D8316C7-52E0-4ABE-AD74-1A11C907A7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EFCC05B-283A-4328-999B-D1327E0904D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C04627-DEE3-4689-AB5C-807B6C60C73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 " sheetId="2" r:id="rId1"/>
@@ -437,13 +437,13 @@
 (Text - max character 255)</t>
   </si>
   <si>
-    <t>Version: 2022.06.21</t>
+    <t>Q4_2022_Obligations__c</t>
   </si>
   <si>
-    <t>Q3_2022_Obligations__c</t>
+    <t>Q4_2022_Expenditures__c</t>
   </si>
   <si>
-    <t>Q3_2022_Expenditures__c</t>
+    <t>Version: 2022.12.13</t>
   </si>
 </sst>
 </file>
@@ -910,9 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275FAA55-771D-4D64-A81A-E1231934DFE3}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -933,7 +931,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1071,10 +1069,10 @@
         <v>8</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>30</v>

--- a/packages/server/src/arpa_reporter/data/treasury/project215218BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project215218BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 4 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pridgenc\Downloads\SLFRFBulkUploadTemplates\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C04627-DEE3-4689-AB5C-807B6C60C73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0C9FEF2-54F6-4DF7-8340-A23F903276ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="4845" windowWidth="25815" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 " sheetId="2" r:id="rId1"/>
@@ -437,13 +437,13 @@
 (Text - max character 255)</t>
   </si>
   <si>
-    <t>Q4_2022_Obligations__c</t>
+    <t>Version: 2023.4.18</t>
   </si>
   <si>
-    <t>Q4_2022_Expenditures__c</t>
+    <t>Q1_2023_Obligations__c</t>
   </si>
   <si>
-    <t>Version: 2022.12.13</t>
+    <t>Q1_2023_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -910,7 +910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275FAA55-771D-4D64-A81A-E1231934DFE3}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -931,7 +933,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1069,10 +1071,10 @@
         <v>8</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>30</v>
@@ -35185,6 +35187,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -35401,12 +35409,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -35417,6 +35419,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35435,23 +35454,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
   <ds:schemaRefs>

--- a/packages/server/src/arpa_reporter/data/treasury/project215218BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project215218BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pridgenc\Downloads\SLFRFBulkUploadTemplates\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 2 2023 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0C9FEF2-54F6-4DF7-8340-A23F903276ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FF09BD-692D-4153-8385-45E1A72F4750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4845" windowWidth="25815" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36930" yWindow="-3765" windowWidth="27420" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 " sheetId="2" r:id="rId1"/>
@@ -437,13 +437,13 @@
 (Text - max character 255)</t>
   </si>
   <si>
-    <t>Version: 2023.4.18</t>
+    <t>Version: 2023.5.17</t>
   </si>
   <si>
-    <t>Q1_2023_Obligations__c</t>
+    <t>Q2_2023_Obligations__c</t>
   </si>
   <si>
-    <t>Q1_2023_Expenditures__c</t>
+    <t>Q2_2023_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275FAA55-771D-4D64-A81A-E1231934DFE3}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:L4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35187,12 +35187,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -35409,6 +35403,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -35419,23 +35419,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35454,6 +35437,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
   <ds:schemaRefs>

--- a/packages/server/src/arpa_reporter/data/treasury/project215218BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project215218BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 2 2023 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\update q3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FF09BD-692D-4153-8385-45E1A72F4750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF74CD0-EC7A-431B-AC5D-0725937AB734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36930" yWindow="-3765" windowWidth="27420" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 " sheetId="2" r:id="rId1"/>
@@ -440,10 +440,10 @@
     <t>Version: 2023.5.17</t>
   </si>
   <si>
-    <t>Q2_2023_Obligations__c</t>
+    <t>Q3_2023_Obligations__c</t>
   </si>
   <si>
-    <t>Q2_2023_Expenditures__c</t>
+    <t>Q3_2023_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -914,24 +914,24 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="2" customWidth="1"/>
-    <col min="2" max="5" width="35.625" style="2" customWidth="1"/>
+    <col min="2" max="5" width="35.59765625" style="2" customWidth="1"/>
     <col min="6" max="7" width="35.5" style="2" customWidth="1"/>
-    <col min="8" max="18" width="35.625" style="2" customWidth="1"/>
+    <col min="8" max="18" width="35.59765625" style="2" customWidth="1"/>
     <col min="19" max="19" width="29" style="2" customWidth="1"/>
-    <col min="20" max="23" width="25.125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="28.875" style="2" customWidth="1"/>
-    <col min="25" max="26" width="29.875" style="2" customWidth="1"/>
-    <col min="27" max="28" width="25.625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="26.25" style="2" customWidth="1"/>
-    <col min="30" max="30" width="26.75" style="2" customWidth="1"/>
-    <col min="31" max="32" width="7.625" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="12.625" style="2"/>
+    <col min="20" max="23" width="25.09765625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="28.8984375" style="2" customWidth="1"/>
+    <col min="25" max="26" width="29.8984375" style="2" customWidth="1"/>
+    <col min="27" max="28" width="25.59765625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="26.19921875" style="2" customWidth="1"/>
+    <col min="30" max="30" width="26.69921875" style="2" customWidth="1"/>
+    <col min="31" max="32" width="7.59765625" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="12.59765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>72</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
     </row>
-    <row r="3" spans="1:32" ht="206.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="206.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>37</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
-    <row r="6" spans="1:32" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="48.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:32" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
-    <row r="8" spans="1:32" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1449,7 +1449,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
     </row>
-    <row r="9" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="1"/>
@@ -1483,7 +1483,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
     </row>
-    <row r="10" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="1"/>
@@ -1517,7 +1517,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
     </row>
-    <row r="11" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1551,7 +1551,7 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1585,7 +1585,7 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1619,7 +1619,7 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
     </row>
-    <row r="14" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1653,7 +1653,7 @@
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
     </row>
-    <row r="15" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1687,7 +1687,7 @@
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
     </row>
-    <row r="16" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1721,7 +1721,7 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
     </row>
-    <row r="17" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1755,7 +1755,7 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
     </row>
-    <row r="18" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1789,7 +1789,7 @@
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
     </row>
-    <row r="19" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1823,7 +1823,7 @@
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
     </row>
-    <row r="20" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1857,7 +1857,7 @@
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
     </row>
-    <row r="21" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1891,7 +1891,7 @@
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
     </row>
-    <row r="22" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1925,7 +1925,7 @@
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
     </row>
-    <row r="23" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1959,7 +1959,7 @@
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
     </row>
-    <row r="24" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1993,7 +1993,7 @@
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
     </row>
-    <row r="25" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2027,7 +2027,7 @@
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
     </row>
-    <row r="26" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2061,7 +2061,7 @@
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
     </row>
-    <row r="27" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2095,7 +2095,7 @@
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
     </row>
-    <row r="28" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2129,7 +2129,7 @@
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
     </row>
-    <row r="29" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2163,7 +2163,7 @@
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
     </row>
-    <row r="30" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2197,7 +2197,7 @@
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
     </row>
-    <row r="31" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2231,7 +2231,7 @@
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
     </row>
-    <row r="32" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2265,7 +2265,7 @@
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
     </row>
-    <row r="33" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2299,7 +2299,7 @@
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
     </row>
-    <row r="34" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2333,7 +2333,7 @@
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
     </row>
-    <row r="35" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2367,7 +2367,7 @@
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
     </row>
-    <row r="36" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2401,7 +2401,7 @@
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
     </row>
-    <row r="37" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2435,7 +2435,7 @@
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
     </row>
-    <row r="38" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2469,7 +2469,7 @@
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
     </row>
-    <row r="39" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2503,7 +2503,7 @@
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
     </row>
-    <row r="40" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2537,7 +2537,7 @@
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
     </row>
-    <row r="41" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2571,7 +2571,7 @@
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
     </row>
-    <row r="42" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2605,7 +2605,7 @@
       <c r="AE42" s="1"/>
       <c r="AF42" s="1"/>
     </row>
-    <row r="43" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2639,7 +2639,7 @@
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
     </row>
-    <row r="44" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2673,7 +2673,7 @@
       <c r="AE44" s="1"/>
       <c r="AF44" s="1"/>
     </row>
-    <row r="45" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2707,7 +2707,7 @@
       <c r="AE45" s="1"/>
       <c r="AF45" s="1"/>
     </row>
-    <row r="46" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2741,7 +2741,7 @@
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
     </row>
-    <row r="47" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2775,7 +2775,7 @@
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
     </row>
-    <row r="48" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2809,7 +2809,7 @@
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
     </row>
-    <row r="49" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2843,7 +2843,7 @@
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
     </row>
-    <row r="50" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2877,7 +2877,7 @@
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
     </row>
-    <row r="51" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2911,7 +2911,7 @@
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
     </row>
-    <row r="52" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2945,7 +2945,7 @@
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
     </row>
-    <row r="53" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2979,7 +2979,7 @@
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
     </row>
-    <row r="54" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3013,7 +3013,7 @@
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
     </row>
-    <row r="55" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3047,7 +3047,7 @@
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
     </row>
-    <row r="56" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3081,7 +3081,7 @@
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
     </row>
-    <row r="57" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3115,7 +3115,7 @@
       <c r="AE57" s="1"/>
       <c r="AF57" s="1"/>
     </row>
-    <row r="58" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3149,7 +3149,7 @@
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
     </row>
-    <row r="59" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3183,7 +3183,7 @@
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
     </row>
-    <row r="60" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3217,7 +3217,7 @@
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
     </row>
-    <row r="61" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3251,7 +3251,7 @@
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
     </row>
-    <row r="62" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3285,7 +3285,7 @@
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
     </row>
-    <row r="63" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3319,7 +3319,7 @@
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
     </row>
-    <row r="64" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3353,7 +3353,7 @@
       <c r="AE64" s="1"/>
       <c r="AF64" s="1"/>
     </row>
-    <row r="65" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3387,7 +3387,7 @@
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
     </row>
-    <row r="66" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3421,7 +3421,7 @@
       <c r="AE66" s="1"/>
       <c r="AF66" s="1"/>
     </row>
-    <row r="67" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3455,7 +3455,7 @@
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
     </row>
-    <row r="68" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3489,7 +3489,7 @@
       <c r="AE68" s="1"/>
       <c r="AF68" s="1"/>
     </row>
-    <row r="69" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3523,7 +3523,7 @@
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
     </row>
-    <row r="70" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3557,7 +3557,7 @@
       <c r="AE70" s="1"/>
       <c r="AF70" s="1"/>
     </row>
-    <row r="71" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3591,7 +3591,7 @@
       <c r="AE71" s="1"/>
       <c r="AF71" s="1"/>
     </row>
-    <row r="72" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3625,7 +3625,7 @@
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
     </row>
-    <row r="73" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3659,7 +3659,7 @@
       <c r="AE73" s="1"/>
       <c r="AF73" s="1"/>
     </row>
-    <row r="74" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3693,7 +3693,7 @@
       <c r="AE74" s="1"/>
       <c r="AF74" s="1"/>
     </row>
-    <row r="75" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3727,7 +3727,7 @@
       <c r="AE75" s="1"/>
       <c r="AF75" s="1"/>
     </row>
-    <row r="76" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3761,7 +3761,7 @@
       <c r="AE76" s="1"/>
       <c r="AF76" s="1"/>
     </row>
-    <row r="77" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3795,7 +3795,7 @@
       <c r="AE77" s="1"/>
       <c r="AF77" s="1"/>
     </row>
-    <row r="78" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3829,7 +3829,7 @@
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
     </row>
-    <row r="79" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3863,7 +3863,7 @@
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
     </row>
-    <row r="80" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3897,7 +3897,7 @@
       <c r="AE80" s="1"/>
       <c r="AF80" s="1"/>
     </row>
-    <row r="81" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3931,7 +3931,7 @@
       <c r="AE81" s="1"/>
       <c r="AF81" s="1"/>
     </row>
-    <row r="82" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3965,7 +3965,7 @@
       <c r="AE82" s="1"/>
       <c r="AF82" s="1"/>
     </row>
-    <row r="83" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3999,7 +3999,7 @@
       <c r="AE83" s="1"/>
       <c r="AF83" s="1"/>
     </row>
-    <row r="84" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4033,7 +4033,7 @@
       <c r="AE84" s="1"/>
       <c r="AF84" s="1"/>
     </row>
-    <row r="85" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4067,7 +4067,7 @@
       <c r="AE85" s="1"/>
       <c r="AF85" s="1"/>
     </row>
-    <row r="86" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4101,7 +4101,7 @@
       <c r="AE86" s="1"/>
       <c r="AF86" s="1"/>
     </row>
-    <row r="87" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4135,7 +4135,7 @@
       <c r="AE87" s="1"/>
       <c r="AF87" s="1"/>
     </row>
-    <row r="88" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4169,7 +4169,7 @@
       <c r="AE88" s="1"/>
       <c r="AF88" s="1"/>
     </row>
-    <row r="89" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4203,7 +4203,7 @@
       <c r="AE89" s="1"/>
       <c r="AF89" s="1"/>
     </row>
-    <row r="90" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4237,7 +4237,7 @@
       <c r="AE90" s="1"/>
       <c r="AF90" s="1"/>
     </row>
-    <row r="91" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4271,7 +4271,7 @@
       <c r="AE91" s="1"/>
       <c r="AF91" s="1"/>
     </row>
-    <row r="92" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4305,7 +4305,7 @@
       <c r="AE92" s="1"/>
       <c r="AF92" s="1"/>
     </row>
-    <row r="93" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4339,7 +4339,7 @@
       <c r="AE93" s="1"/>
       <c r="AF93" s="1"/>
     </row>
-    <row r="94" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4373,7 +4373,7 @@
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
     </row>
-    <row r="95" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4407,7 +4407,7 @@
       <c r="AE95" s="1"/>
       <c r="AF95" s="1"/>
     </row>
-    <row r="96" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4441,7 +4441,7 @@
       <c r="AE96" s="1"/>
       <c r="AF96" s="1"/>
     </row>
-    <row r="97" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4475,7 +4475,7 @@
       <c r="AE97" s="1"/>
       <c r="AF97" s="1"/>
     </row>
-    <row r="98" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4509,7 +4509,7 @@
       <c r="AE98" s="1"/>
       <c r="AF98" s="1"/>
     </row>
-    <row r="99" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4543,7 +4543,7 @@
       <c r="AE99" s="1"/>
       <c r="AF99" s="1"/>
     </row>
-    <row r="100" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4577,7 +4577,7 @@
       <c r="AE100" s="1"/>
       <c r="AF100" s="1"/>
     </row>
-    <row r="101" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4611,7 +4611,7 @@
       <c r="AE101" s="1"/>
       <c r="AF101" s="1"/>
     </row>
-    <row r="102" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4645,7 +4645,7 @@
       <c r="AE102" s="1"/>
       <c r="AF102" s="1"/>
     </row>
-    <row r="103" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4679,7 +4679,7 @@
       <c r="AE103" s="1"/>
       <c r="AF103" s="1"/>
     </row>
-    <row r="104" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4713,7 +4713,7 @@
       <c r="AE104" s="1"/>
       <c r="AF104" s="1"/>
     </row>
-    <row r="105" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4747,7 +4747,7 @@
       <c r="AE105" s="1"/>
       <c r="AF105" s="1"/>
     </row>
-    <row r="106" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4781,7 +4781,7 @@
       <c r="AE106" s="1"/>
       <c r="AF106" s="1"/>
     </row>
-    <row r="107" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4815,7 +4815,7 @@
       <c r="AE107" s="1"/>
       <c r="AF107" s="1"/>
     </row>
-    <row r="108" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4849,7 +4849,7 @@
       <c r="AE108" s="1"/>
       <c r="AF108" s="1"/>
     </row>
-    <row r="109" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4883,7 +4883,7 @@
       <c r="AE109" s="1"/>
       <c r="AF109" s="1"/>
     </row>
-    <row r="110" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4917,7 +4917,7 @@
       <c r="AE110" s="1"/>
       <c r="AF110" s="1"/>
     </row>
-    <row r="111" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4951,7 +4951,7 @@
       <c r="AE111" s="1"/>
       <c r="AF111" s="1"/>
     </row>
-    <row r="112" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4985,7 +4985,7 @@
       <c r="AE112" s="1"/>
       <c r="AF112" s="1"/>
     </row>
-    <row r="113" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5019,7 +5019,7 @@
       <c r="AE113" s="1"/>
       <c r="AF113" s="1"/>
     </row>
-    <row r="114" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5053,7 +5053,7 @@
       <c r="AE114" s="1"/>
       <c r="AF114" s="1"/>
     </row>
-    <row r="115" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5087,7 +5087,7 @@
       <c r="AE115" s="1"/>
       <c r="AF115" s="1"/>
     </row>
-    <row r="116" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5121,7 +5121,7 @@
       <c r="AE116" s="1"/>
       <c r="AF116" s="1"/>
     </row>
-    <row r="117" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5155,7 +5155,7 @@
       <c r="AE117" s="1"/>
       <c r="AF117" s="1"/>
     </row>
-    <row r="118" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5189,7 +5189,7 @@
       <c r="AE118" s="1"/>
       <c r="AF118" s="1"/>
     </row>
-    <row r="119" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5223,7 +5223,7 @@
       <c r="AE119" s="1"/>
       <c r="AF119" s="1"/>
     </row>
-    <row r="120" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5257,7 +5257,7 @@
       <c r="AE120" s="1"/>
       <c r="AF120" s="1"/>
     </row>
-    <row r="121" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5291,7 +5291,7 @@
       <c r="AE121" s="1"/>
       <c r="AF121" s="1"/>
     </row>
-    <row r="122" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5325,7 +5325,7 @@
       <c r="AE122" s="1"/>
       <c r="AF122" s="1"/>
     </row>
-    <row r="123" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5359,7 +5359,7 @@
       <c r="AE123" s="1"/>
       <c r="AF123" s="1"/>
     </row>
-    <row r="124" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5393,7 +5393,7 @@
       <c r="AE124" s="1"/>
       <c r="AF124" s="1"/>
     </row>
-    <row r="125" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5427,7 +5427,7 @@
       <c r="AE125" s="1"/>
       <c r="AF125" s="1"/>
     </row>
-    <row r="126" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5461,7 +5461,7 @@
       <c r="AE126" s="1"/>
       <c r="AF126" s="1"/>
     </row>
-    <row r="127" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5495,7 +5495,7 @@
       <c r="AE127" s="1"/>
       <c r="AF127" s="1"/>
     </row>
-    <row r="128" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5529,7 +5529,7 @@
       <c r="AE128" s="1"/>
       <c r="AF128" s="1"/>
     </row>
-    <row r="129" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5563,7 +5563,7 @@
       <c r="AE129" s="1"/>
       <c r="AF129" s="1"/>
     </row>
-    <row r="130" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5597,7 +5597,7 @@
       <c r="AE130" s="1"/>
       <c r="AF130" s="1"/>
     </row>
-    <row r="131" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5631,7 +5631,7 @@
       <c r="AE131" s="1"/>
       <c r="AF131" s="1"/>
     </row>
-    <row r="132" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5665,7 +5665,7 @@
       <c r="AE132" s="1"/>
       <c r="AF132" s="1"/>
     </row>
-    <row r="133" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5699,7 +5699,7 @@
       <c r="AE133" s="1"/>
       <c r="AF133" s="1"/>
     </row>
-    <row r="134" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5733,7 +5733,7 @@
       <c r="AE134" s="1"/>
       <c r="AF134" s="1"/>
     </row>
-    <row r="135" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5767,7 +5767,7 @@
       <c r="AE135" s="1"/>
       <c r="AF135" s="1"/>
     </row>
-    <row r="136" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5801,7 +5801,7 @@
       <c r="AE136" s="1"/>
       <c r="AF136" s="1"/>
     </row>
-    <row r="137" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5835,7 +5835,7 @@
       <c r="AE137" s="1"/>
       <c r="AF137" s="1"/>
     </row>
-    <row r="138" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5869,7 +5869,7 @@
       <c r="AE138" s="1"/>
       <c r="AF138" s="1"/>
     </row>
-    <row r="139" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5903,7 +5903,7 @@
       <c r="AE139" s="1"/>
       <c r="AF139" s="1"/>
     </row>
-    <row r="140" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5937,7 +5937,7 @@
       <c r="AE140" s="1"/>
       <c r="AF140" s="1"/>
     </row>
-    <row r="141" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5971,7 +5971,7 @@
       <c r="AE141" s="1"/>
       <c r="AF141" s="1"/>
     </row>
-    <row r="142" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6005,7 +6005,7 @@
       <c r="AE142" s="1"/>
       <c r="AF142" s="1"/>
     </row>
-    <row r="143" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6039,7 +6039,7 @@
       <c r="AE143" s="1"/>
       <c r="AF143" s="1"/>
     </row>
-    <row r="144" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6073,7 +6073,7 @@
       <c r="AE144" s="1"/>
       <c r="AF144" s="1"/>
     </row>
-    <row r="145" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6107,7 +6107,7 @@
       <c r="AE145" s="1"/>
       <c r="AF145" s="1"/>
     </row>
-    <row r="146" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6141,7 +6141,7 @@
       <c r="AE146" s="1"/>
       <c r="AF146" s="1"/>
     </row>
-    <row r="147" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6175,7 +6175,7 @@
       <c r="AE147" s="1"/>
       <c r="AF147" s="1"/>
     </row>
-    <row r="148" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6209,7 +6209,7 @@
       <c r="AE148" s="1"/>
       <c r="AF148" s="1"/>
     </row>
-    <row r="149" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6243,7 +6243,7 @@
       <c r="AE149" s="1"/>
       <c r="AF149" s="1"/>
     </row>
-    <row r="150" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6277,7 +6277,7 @@
       <c r="AE150" s="1"/>
       <c r="AF150" s="1"/>
     </row>
-    <row r="151" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6311,7 +6311,7 @@
       <c r="AE151" s="1"/>
       <c r="AF151" s="1"/>
     </row>
-    <row r="152" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6345,7 +6345,7 @@
       <c r="AE152" s="1"/>
       <c r="AF152" s="1"/>
     </row>
-    <row r="153" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6379,7 +6379,7 @@
       <c r="AE153" s="1"/>
       <c r="AF153" s="1"/>
     </row>
-    <row r="154" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6413,7 +6413,7 @@
       <c r="AE154" s="1"/>
       <c r="AF154" s="1"/>
     </row>
-    <row r="155" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6447,7 +6447,7 @@
       <c r="AE155" s="1"/>
       <c r="AF155" s="1"/>
     </row>
-    <row r="156" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6481,7 +6481,7 @@
       <c r="AE156" s="1"/>
       <c r="AF156" s="1"/>
     </row>
-    <row r="157" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6515,7 +6515,7 @@
       <c r="AE157" s="1"/>
       <c r="AF157" s="1"/>
     </row>
-    <row r="158" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6549,7 +6549,7 @@
       <c r="AE158" s="1"/>
       <c r="AF158" s="1"/>
     </row>
-    <row r="159" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6583,7 +6583,7 @@
       <c r="AE159" s="1"/>
       <c r="AF159" s="1"/>
     </row>
-    <row r="160" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6617,7 +6617,7 @@
       <c r="AE160" s="1"/>
       <c r="AF160" s="1"/>
     </row>
-    <row r="161" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6651,7 +6651,7 @@
       <c r="AE161" s="1"/>
       <c r="AF161" s="1"/>
     </row>
-    <row r="162" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6685,7 +6685,7 @@
       <c r="AE162" s="1"/>
       <c r="AF162" s="1"/>
     </row>
-    <row r="163" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6719,7 +6719,7 @@
       <c r="AE163" s="1"/>
       <c r="AF163" s="1"/>
     </row>
-    <row r="164" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6753,7 +6753,7 @@
       <c r="AE164" s="1"/>
       <c r="AF164" s="1"/>
     </row>
-    <row r="165" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6787,7 +6787,7 @@
       <c r="AE165" s="1"/>
       <c r="AF165" s="1"/>
     </row>
-    <row r="166" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6821,7 +6821,7 @@
       <c r="AE166" s="1"/>
       <c r="AF166" s="1"/>
     </row>
-    <row r="167" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6855,7 +6855,7 @@
       <c r="AE167" s="1"/>
       <c r="AF167" s="1"/>
     </row>
-    <row r="168" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6889,7 +6889,7 @@
       <c r="AE168" s="1"/>
       <c r="AF168" s="1"/>
     </row>
-    <row r="169" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6923,7 +6923,7 @@
       <c r="AE169" s="1"/>
       <c r="AF169" s="1"/>
     </row>
-    <row r="170" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6957,7 +6957,7 @@
       <c r="AE170" s="1"/>
       <c r="AF170" s="1"/>
     </row>
-    <row r="171" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6991,7 +6991,7 @@
       <c r="AE171" s="1"/>
       <c r="AF171" s="1"/>
     </row>
-    <row r="172" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7025,7 +7025,7 @@
       <c r="AE172" s="1"/>
       <c r="AF172" s="1"/>
     </row>
-    <row r="173" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7059,7 +7059,7 @@
       <c r="AE173" s="1"/>
       <c r="AF173" s="1"/>
     </row>
-    <row r="174" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7093,7 +7093,7 @@
       <c r="AE174" s="1"/>
       <c r="AF174" s="1"/>
     </row>
-    <row r="175" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7127,7 +7127,7 @@
       <c r="AE175" s="1"/>
       <c r="AF175" s="1"/>
     </row>
-    <row r="176" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7161,7 +7161,7 @@
       <c r="AE176" s="1"/>
       <c r="AF176" s="1"/>
     </row>
-    <row r="177" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7195,7 +7195,7 @@
       <c r="AE177" s="1"/>
       <c r="AF177" s="1"/>
     </row>
-    <row r="178" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7229,7 +7229,7 @@
       <c r="AE178" s="1"/>
       <c r="AF178" s="1"/>
     </row>
-    <row r="179" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7263,7 +7263,7 @@
       <c r="AE179" s="1"/>
       <c r="AF179" s="1"/>
     </row>
-    <row r="180" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7297,7 +7297,7 @@
       <c r="AE180" s="1"/>
       <c r="AF180" s="1"/>
     </row>
-    <row r="181" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7331,7 +7331,7 @@
       <c r="AE181" s="1"/>
       <c r="AF181" s="1"/>
     </row>
-    <row r="182" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7365,7 +7365,7 @@
       <c r="AE182" s="1"/>
       <c r="AF182" s="1"/>
     </row>
-    <row r="183" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7399,7 +7399,7 @@
       <c r="AE183" s="1"/>
       <c r="AF183" s="1"/>
     </row>
-    <row r="184" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7433,7 +7433,7 @@
       <c r="AE184" s="1"/>
       <c r="AF184" s="1"/>
     </row>
-    <row r="185" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7467,7 +7467,7 @@
       <c r="AE185" s="1"/>
       <c r="AF185" s="1"/>
     </row>
-    <row r="186" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7501,7 +7501,7 @@
       <c r="AE186" s="1"/>
       <c r="AF186" s="1"/>
     </row>
-    <row r="187" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7535,7 +7535,7 @@
       <c r="AE187" s="1"/>
       <c r="AF187" s="1"/>
     </row>
-    <row r="188" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7569,7 +7569,7 @@
       <c r="AE188" s="1"/>
       <c r="AF188" s="1"/>
     </row>
-    <row r="189" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7603,7 +7603,7 @@
       <c r="AE189" s="1"/>
       <c r="AF189" s="1"/>
     </row>
-    <row r="190" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7637,7 +7637,7 @@
       <c r="AE190" s="1"/>
       <c r="AF190" s="1"/>
     </row>
-    <row r="191" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7671,7 +7671,7 @@
       <c r="AE191" s="1"/>
       <c r="AF191" s="1"/>
     </row>
-    <row r="192" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7705,7 +7705,7 @@
       <c r="AE192" s="1"/>
       <c r="AF192" s="1"/>
     </row>
-    <row r="193" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7739,7 +7739,7 @@
       <c r="AE193" s="1"/>
       <c r="AF193" s="1"/>
     </row>
-    <row r="194" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7773,7 +7773,7 @@
       <c r="AE194" s="1"/>
       <c r="AF194" s="1"/>
     </row>
-    <row r="195" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7807,7 +7807,7 @@
       <c r="AE195" s="1"/>
       <c r="AF195" s="1"/>
     </row>
-    <row r="196" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7841,7 +7841,7 @@
       <c r="AE196" s="1"/>
       <c r="AF196" s="1"/>
     </row>
-    <row r="197" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7875,7 +7875,7 @@
       <c r="AE197" s="1"/>
       <c r="AF197" s="1"/>
     </row>
-    <row r="198" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7909,7 +7909,7 @@
       <c r="AE198" s="1"/>
       <c r="AF198" s="1"/>
     </row>
-    <row r="199" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7943,7 +7943,7 @@
       <c r="AE199" s="1"/>
       <c r="AF199" s="1"/>
     </row>
-    <row r="200" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7977,7 +7977,7 @@
       <c r="AE200" s="1"/>
       <c r="AF200" s="1"/>
     </row>
-    <row r="201" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -8011,7 +8011,7 @@
       <c r="AE201" s="1"/>
       <c r="AF201" s="1"/>
     </row>
-    <row r="202" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -8045,7 +8045,7 @@
       <c r="AE202" s="1"/>
       <c r="AF202" s="1"/>
     </row>
-    <row r="203" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -8079,7 +8079,7 @@
       <c r="AE203" s="1"/>
       <c r="AF203" s="1"/>
     </row>
-    <row r="204" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -8113,7 +8113,7 @@
       <c r="AE204" s="1"/>
       <c r="AF204" s="1"/>
     </row>
-    <row r="205" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -8147,7 +8147,7 @@
       <c r="AE205" s="1"/>
       <c r="AF205" s="1"/>
     </row>
-    <row r="206" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -8181,7 +8181,7 @@
       <c r="AE206" s="1"/>
       <c r="AF206" s="1"/>
     </row>
-    <row r="207" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -8215,7 +8215,7 @@
       <c r="AE207" s="1"/>
       <c r="AF207" s="1"/>
     </row>
-    <row r="208" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -8249,7 +8249,7 @@
       <c r="AE208" s="1"/>
       <c r="AF208" s="1"/>
     </row>
-    <row r="209" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8283,7 +8283,7 @@
       <c r="AE209" s="1"/>
       <c r="AF209" s="1"/>
     </row>
-    <row r="210" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8317,7 +8317,7 @@
       <c r="AE210" s="1"/>
       <c r="AF210" s="1"/>
     </row>
-    <row r="211" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -8351,7 +8351,7 @@
       <c r="AE211" s="1"/>
       <c r="AF211" s="1"/>
     </row>
-    <row r="212" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -8385,7 +8385,7 @@
       <c r="AE212" s="1"/>
       <c r="AF212" s="1"/>
     </row>
-    <row r="213" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -8419,7 +8419,7 @@
       <c r="AE213" s="1"/>
       <c r="AF213" s="1"/>
     </row>
-    <row r="214" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -8453,7 +8453,7 @@
       <c r="AE214" s="1"/>
       <c r="AF214" s="1"/>
     </row>
-    <row r="215" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -8487,7 +8487,7 @@
       <c r="AE215" s="1"/>
       <c r="AF215" s="1"/>
     </row>
-    <row r="216" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8521,7 +8521,7 @@
       <c r="AE216" s="1"/>
       <c r="AF216" s="1"/>
     </row>
-    <row r="217" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8555,7 +8555,7 @@
       <c r="AE217" s="1"/>
       <c r="AF217" s="1"/>
     </row>
-    <row r="218" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8589,7 +8589,7 @@
       <c r="AE218" s="1"/>
       <c r="AF218" s="1"/>
     </row>
-    <row r="219" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8623,7 +8623,7 @@
       <c r="AE219" s="1"/>
       <c r="AF219" s="1"/>
     </row>
-    <row r="220" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8657,7 +8657,7 @@
       <c r="AE220" s="1"/>
       <c r="AF220" s="1"/>
     </row>
-    <row r="221" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -8691,7 +8691,7 @@
       <c r="AE221" s="1"/>
       <c r="AF221" s="1"/>
     </row>
-    <row r="222" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -8725,7 +8725,7 @@
       <c r="AE222" s="1"/>
       <c r="AF222" s="1"/>
     </row>
-    <row r="223" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -8759,7 +8759,7 @@
       <c r="AE223" s="1"/>
       <c r="AF223" s="1"/>
     </row>
-    <row r="224" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8793,7 +8793,7 @@
       <c r="AE224" s="1"/>
       <c r="AF224" s="1"/>
     </row>
-    <row r="225" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8827,7 +8827,7 @@
       <c r="AE225" s="1"/>
       <c r="AF225" s="1"/>
     </row>
-    <row r="226" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8861,7 +8861,7 @@
       <c r="AE226" s="1"/>
       <c r="AF226" s="1"/>
     </row>
-    <row r="227" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8895,7 +8895,7 @@
       <c r="AE227" s="1"/>
       <c r="AF227" s="1"/>
     </row>
-    <row r="228" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8929,7 +8929,7 @@
       <c r="AE228" s="1"/>
       <c r="AF228" s="1"/>
     </row>
-    <row r="229" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8963,7 +8963,7 @@
       <c r="AE229" s="1"/>
       <c r="AF229" s="1"/>
     </row>
-    <row r="230" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8997,7 +8997,7 @@
       <c r="AE230" s="1"/>
       <c r="AF230" s="1"/>
     </row>
-    <row r="231" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -9031,7 +9031,7 @@
       <c r="AE231" s="1"/>
       <c r="AF231" s="1"/>
     </row>
-    <row r="232" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -9065,7 +9065,7 @@
       <c r="AE232" s="1"/>
       <c r="AF232" s="1"/>
     </row>
-    <row r="233" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -9099,7 +9099,7 @@
       <c r="AE233" s="1"/>
       <c r="AF233" s="1"/>
     </row>
-    <row r="234" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -9133,7 +9133,7 @@
       <c r="AE234" s="1"/>
       <c r="AF234" s="1"/>
     </row>
-    <row r="235" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -9167,7 +9167,7 @@
       <c r="AE235" s="1"/>
       <c r="AF235" s="1"/>
     </row>
-    <row r="236" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -9201,7 +9201,7 @@
       <c r="AE236" s="1"/>
       <c r="AF236" s="1"/>
     </row>
-    <row r="237" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -9235,7 +9235,7 @@
       <c r="AE237" s="1"/>
       <c r="AF237" s="1"/>
     </row>
-    <row r="238" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -9269,7 +9269,7 @@
       <c r="AE238" s="1"/>
       <c r="AF238" s="1"/>
     </row>
-    <row r="239" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -9303,7 +9303,7 @@
       <c r="AE239" s="1"/>
       <c r="AF239" s="1"/>
     </row>
-    <row r="240" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -9337,7 +9337,7 @@
       <c r="AE240" s="1"/>
       <c r="AF240" s="1"/>
     </row>
-    <row r="241" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -9371,7 +9371,7 @@
       <c r="AE241" s="1"/>
       <c r="AF241" s="1"/>
     </row>
-    <row r="242" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -9405,7 +9405,7 @@
       <c r="AE242" s="1"/>
       <c r="AF242" s="1"/>
     </row>
-    <row r="243" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -9439,7 +9439,7 @@
       <c r="AE243" s="1"/>
       <c r="AF243" s="1"/>
     </row>
-    <row r="244" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9473,7 +9473,7 @@
       <c r="AE244" s="1"/>
       <c r="AF244" s="1"/>
     </row>
-    <row r="245" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -9507,7 +9507,7 @@
       <c r="AE245" s="1"/>
       <c r="AF245" s="1"/>
     </row>
-    <row r="246" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -9541,7 +9541,7 @@
       <c r="AE246" s="1"/>
       <c r="AF246" s="1"/>
     </row>
-    <row r="247" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -9575,7 +9575,7 @@
       <c r="AE247" s="1"/>
       <c r="AF247" s="1"/>
     </row>
-    <row r="248" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -9609,7 +9609,7 @@
       <c r="AE248" s="1"/>
       <c r="AF248" s="1"/>
     </row>
-    <row r="249" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -9643,7 +9643,7 @@
       <c r="AE249" s="1"/>
       <c r="AF249" s="1"/>
     </row>
-    <row r="250" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -9677,7 +9677,7 @@
       <c r="AE250" s="1"/>
       <c r="AF250" s="1"/>
     </row>
-    <row r="251" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -9711,7 +9711,7 @@
       <c r="AE251" s="1"/>
       <c r="AF251" s="1"/>
     </row>
-    <row r="252" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -9745,7 +9745,7 @@
       <c r="AE252" s="1"/>
       <c r="AF252" s="1"/>
     </row>
-    <row r="253" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -9779,7 +9779,7 @@
       <c r="AE253" s="1"/>
       <c r="AF253" s="1"/>
     </row>
-    <row r="254" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -9813,7 +9813,7 @@
       <c r="AE254" s="1"/>
       <c r="AF254" s="1"/>
     </row>
-    <row r="255" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -9847,7 +9847,7 @@
       <c r="AE255" s="1"/>
       <c r="AF255" s="1"/>
     </row>
-    <row r="256" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -9881,7 +9881,7 @@
       <c r="AE256" s="1"/>
       <c r="AF256" s="1"/>
     </row>
-    <row r="257" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -9915,7 +9915,7 @@
       <c r="AE257" s="1"/>
       <c r="AF257" s="1"/>
     </row>
-    <row r="258" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -9949,7 +9949,7 @@
       <c r="AE258" s="1"/>
       <c r="AF258" s="1"/>
     </row>
-    <row r="259" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -9983,7 +9983,7 @@
       <c r="AE259" s="1"/>
       <c r="AF259" s="1"/>
     </row>
-    <row r="260" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -10017,7 +10017,7 @@
       <c r="AE260" s="1"/>
       <c r="AF260" s="1"/>
     </row>
-    <row r="261" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -10051,7 +10051,7 @@
       <c r="AE261" s="1"/>
       <c r="AF261" s="1"/>
     </row>
-    <row r="262" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -10085,7 +10085,7 @@
       <c r="AE262" s="1"/>
       <c r="AF262" s="1"/>
     </row>
-    <row r="263" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -10119,7 +10119,7 @@
       <c r="AE263" s="1"/>
       <c r="AF263" s="1"/>
     </row>
-    <row r="264" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -10153,7 +10153,7 @@
       <c r="AE264" s="1"/>
       <c r="AF264" s="1"/>
     </row>
-    <row r="265" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -10187,7 +10187,7 @@
       <c r="AE265" s="1"/>
       <c r="AF265" s="1"/>
     </row>
-    <row r="266" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -10221,7 +10221,7 @@
       <c r="AE266" s="1"/>
       <c r="AF266" s="1"/>
     </row>
-    <row r="267" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -10255,7 +10255,7 @@
       <c r="AE267" s="1"/>
       <c r="AF267" s="1"/>
     </row>
-    <row r="268" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -10289,7 +10289,7 @@
       <c r="AE268" s="1"/>
       <c r="AF268" s="1"/>
     </row>
-    <row r="269" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -10323,7 +10323,7 @@
       <c r="AE269" s="1"/>
       <c r="AF269" s="1"/>
     </row>
-    <row r="270" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -10357,7 +10357,7 @@
       <c r="AE270" s="1"/>
       <c r="AF270" s="1"/>
     </row>
-    <row r="271" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -10391,7 +10391,7 @@
       <c r="AE271" s="1"/>
       <c r="AF271" s="1"/>
     </row>
-    <row r="272" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -10425,7 +10425,7 @@
       <c r="AE272" s="1"/>
       <c r="AF272" s="1"/>
     </row>
-    <row r="273" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -10459,7 +10459,7 @@
       <c r="AE273" s="1"/>
       <c r="AF273" s="1"/>
     </row>
-    <row r="274" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -10493,7 +10493,7 @@
       <c r="AE274" s="1"/>
       <c r="AF274" s="1"/>
     </row>
-    <row r="275" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -10527,7 +10527,7 @@
       <c r="AE275" s="1"/>
       <c r="AF275" s="1"/>
     </row>
-    <row r="276" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -10561,7 +10561,7 @@
       <c r="AE276" s="1"/>
       <c r="AF276" s="1"/>
     </row>
-    <row r="277" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -10595,7 +10595,7 @@
       <c r="AE277" s="1"/>
       <c r="AF277" s="1"/>
     </row>
-    <row r="278" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -10629,7 +10629,7 @@
       <c r="AE278" s="1"/>
       <c r="AF278" s="1"/>
     </row>
-    <row r="279" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -10663,7 +10663,7 @@
       <c r="AE279" s="1"/>
       <c r="AF279" s="1"/>
     </row>
-    <row r="280" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -10697,7 +10697,7 @@
       <c r="AE280" s="1"/>
       <c r="AF280" s="1"/>
     </row>
-    <row r="281" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -10731,7 +10731,7 @@
       <c r="AE281" s="1"/>
       <c r="AF281" s="1"/>
     </row>
-    <row r="282" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -10765,7 +10765,7 @@
       <c r="AE282" s="1"/>
       <c r="AF282" s="1"/>
     </row>
-    <row r="283" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -10799,7 +10799,7 @@
       <c r="AE283" s="1"/>
       <c r="AF283" s="1"/>
     </row>
-    <row r="284" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -10833,7 +10833,7 @@
       <c r="AE284" s="1"/>
       <c r="AF284" s="1"/>
     </row>
-    <row r="285" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -10867,7 +10867,7 @@
       <c r="AE285" s="1"/>
       <c r="AF285" s="1"/>
     </row>
-    <row r="286" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -10901,7 +10901,7 @@
       <c r="AE286" s="1"/>
       <c r="AF286" s="1"/>
     </row>
-    <row r="287" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -10935,7 +10935,7 @@
       <c r="AE287" s="1"/>
       <c r="AF287" s="1"/>
     </row>
-    <row r="288" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -10969,7 +10969,7 @@
       <c r="AE288" s="1"/>
       <c r="AF288" s="1"/>
     </row>
-    <row r="289" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -11003,7 +11003,7 @@
       <c r="AE289" s="1"/>
       <c r="AF289" s="1"/>
     </row>
-    <row r="290" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -11037,7 +11037,7 @@
       <c r="AE290" s="1"/>
       <c r="AF290" s="1"/>
     </row>
-    <row r="291" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -11071,7 +11071,7 @@
       <c r="AE291" s="1"/>
       <c r="AF291" s="1"/>
     </row>
-    <row r="292" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -11105,7 +11105,7 @@
       <c r="AE292" s="1"/>
       <c r="AF292" s="1"/>
     </row>
-    <row r="293" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -11139,7 +11139,7 @@
       <c r="AE293" s="1"/>
       <c r="AF293" s="1"/>
     </row>
-    <row r="294" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -11173,7 +11173,7 @@
       <c r="AE294" s="1"/>
       <c r="AF294" s="1"/>
     </row>
-    <row r="295" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -11207,7 +11207,7 @@
       <c r="AE295" s="1"/>
       <c r="AF295" s="1"/>
     </row>
-    <row r="296" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -11241,7 +11241,7 @@
       <c r="AE296" s="1"/>
       <c r="AF296" s="1"/>
     </row>
-    <row r="297" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -11275,7 +11275,7 @@
       <c r="AE297" s="1"/>
       <c r="AF297" s="1"/>
     </row>
-    <row r="298" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -11309,7 +11309,7 @@
       <c r="AE298" s="1"/>
       <c r="AF298" s="1"/>
     </row>
-    <row r="299" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -11343,7 +11343,7 @@
       <c r="AE299" s="1"/>
       <c r="AF299" s="1"/>
     </row>
-    <row r="300" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -11377,7 +11377,7 @@
       <c r="AE300" s="1"/>
       <c r="AF300" s="1"/>
     </row>
-    <row r="301" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -11411,7 +11411,7 @@
       <c r="AE301" s="1"/>
       <c r="AF301" s="1"/>
     </row>
-    <row r="302" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -11445,7 +11445,7 @@
       <c r="AE302" s="1"/>
       <c r="AF302" s="1"/>
     </row>
-    <row r="303" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -11479,7 +11479,7 @@
       <c r="AE303" s="1"/>
       <c r="AF303" s="1"/>
     </row>
-    <row r="304" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -11513,7 +11513,7 @@
       <c r="AE304" s="1"/>
       <c r="AF304" s="1"/>
     </row>
-    <row r="305" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -11547,7 +11547,7 @@
       <c r="AE305" s="1"/>
       <c r="AF305" s="1"/>
     </row>
-    <row r="306" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -11581,7 +11581,7 @@
       <c r="AE306" s="1"/>
       <c r="AF306" s="1"/>
     </row>
-    <row r="307" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -11615,7 +11615,7 @@
       <c r="AE307" s="1"/>
       <c r="AF307" s="1"/>
     </row>
-    <row r="308" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -11649,7 +11649,7 @@
       <c r="AE308" s="1"/>
       <c r="AF308" s="1"/>
     </row>
-    <row r="309" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -11683,7 +11683,7 @@
       <c r="AE309" s="1"/>
       <c r="AF309" s="1"/>
     </row>
-    <row r="310" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -11717,7 +11717,7 @@
       <c r="AE310" s="1"/>
       <c r="AF310" s="1"/>
     </row>
-    <row r="311" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -11751,7 +11751,7 @@
       <c r="AE311" s="1"/>
       <c r="AF311" s="1"/>
     </row>
-    <row r="312" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -11785,7 +11785,7 @@
       <c r="AE312" s="1"/>
       <c r="AF312" s="1"/>
     </row>
-    <row r="313" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -11819,7 +11819,7 @@
       <c r="AE313" s="1"/>
       <c r="AF313" s="1"/>
     </row>
-    <row r="314" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -11853,7 +11853,7 @@
       <c r="AE314" s="1"/>
       <c r="AF314" s="1"/>
     </row>
-    <row r="315" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -11887,7 +11887,7 @@
       <c r="AE315" s="1"/>
       <c r="AF315" s="1"/>
     </row>
-    <row r="316" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -11921,7 +11921,7 @@
       <c r="AE316" s="1"/>
       <c r="AF316" s="1"/>
     </row>
-    <row r="317" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -11955,7 +11955,7 @@
       <c r="AE317" s="1"/>
       <c r="AF317" s="1"/>
     </row>
-    <row r="318" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -11989,7 +11989,7 @@
       <c r="AE318" s="1"/>
       <c r="AF318" s="1"/>
     </row>
-    <row r="319" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -12023,7 +12023,7 @@
       <c r="AE319" s="1"/>
       <c r="AF319" s="1"/>
     </row>
-    <row r="320" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -12057,7 +12057,7 @@
       <c r="AE320" s="1"/>
       <c r="AF320" s="1"/>
     </row>
-    <row r="321" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -12091,7 +12091,7 @@
       <c r="AE321" s="1"/>
       <c r="AF321" s="1"/>
     </row>
-    <row r="322" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -12125,7 +12125,7 @@
       <c r="AE322" s="1"/>
       <c r="AF322" s="1"/>
     </row>
-    <row r="323" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -12159,7 +12159,7 @@
       <c r="AE323" s="1"/>
       <c r="AF323" s="1"/>
     </row>
-    <row r="324" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -12193,7 +12193,7 @@
       <c r="AE324" s="1"/>
       <c r="AF324" s="1"/>
     </row>
-    <row r="325" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -12227,7 +12227,7 @@
       <c r="AE325" s="1"/>
       <c r="AF325" s="1"/>
     </row>
-    <row r="326" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -12261,7 +12261,7 @@
       <c r="AE326" s="1"/>
       <c r="AF326" s="1"/>
     </row>
-    <row r="327" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -12295,7 +12295,7 @@
       <c r="AE327" s="1"/>
       <c r="AF327" s="1"/>
     </row>
-    <row r="328" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -12329,7 +12329,7 @@
       <c r="AE328" s="1"/>
       <c r="AF328" s="1"/>
     </row>
-    <row r="329" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -12363,7 +12363,7 @@
       <c r="AE329" s="1"/>
       <c r="AF329" s="1"/>
     </row>
-    <row r="330" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -12397,7 +12397,7 @@
       <c r="AE330" s="1"/>
       <c r="AF330" s="1"/>
     </row>
-    <row r="331" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -12431,7 +12431,7 @@
       <c r="AE331" s="1"/>
       <c r="AF331" s="1"/>
     </row>
-    <row r="332" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -12465,7 +12465,7 @@
       <c r="AE332" s="1"/>
       <c r="AF332" s="1"/>
     </row>
-    <row r="333" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -12499,7 +12499,7 @@
       <c r="AE333" s="1"/>
       <c r="AF333" s="1"/>
     </row>
-    <row r="334" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -12533,7 +12533,7 @@
       <c r="AE334" s="1"/>
       <c r="AF334" s="1"/>
     </row>
-    <row r="335" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -12567,7 +12567,7 @@
       <c r="AE335" s="1"/>
       <c r="AF335" s="1"/>
     </row>
-    <row r="336" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -12601,7 +12601,7 @@
       <c r="AE336" s="1"/>
       <c r="AF336" s="1"/>
     </row>
-    <row r="337" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -12635,7 +12635,7 @@
       <c r="AE337" s="1"/>
       <c r="AF337" s="1"/>
     </row>
-    <row r="338" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -12669,7 +12669,7 @@
       <c r="AE338" s="1"/>
       <c r="AF338" s="1"/>
     </row>
-    <row r="339" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -12703,7 +12703,7 @@
       <c r="AE339" s="1"/>
       <c r="AF339" s="1"/>
     </row>
-    <row r="340" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -12737,7 +12737,7 @@
       <c r="AE340" s="1"/>
       <c r="AF340" s="1"/>
     </row>
-    <row r="341" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -12771,7 +12771,7 @@
       <c r="AE341" s="1"/>
       <c r="AF341" s="1"/>
     </row>
-    <row r="342" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -12805,7 +12805,7 @@
       <c r="AE342" s="1"/>
       <c r="AF342" s="1"/>
     </row>
-    <row r="343" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -12839,7 +12839,7 @@
       <c r="AE343" s="1"/>
       <c r="AF343" s="1"/>
     </row>
-    <row r="344" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -12873,7 +12873,7 @@
       <c r="AE344" s="1"/>
       <c r="AF344" s="1"/>
     </row>
-    <row r="345" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -12907,7 +12907,7 @@
       <c r="AE345" s="1"/>
       <c r="AF345" s="1"/>
     </row>
-    <row r="346" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -12941,7 +12941,7 @@
       <c r="AE346" s="1"/>
       <c r="AF346" s="1"/>
     </row>
-    <row r="347" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -12975,7 +12975,7 @@
       <c r="AE347" s="1"/>
       <c r="AF347" s="1"/>
     </row>
-    <row r="348" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -13009,7 +13009,7 @@
       <c r="AE348" s="1"/>
       <c r="AF348" s="1"/>
     </row>
-    <row r="349" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -13043,7 +13043,7 @@
       <c r="AE349" s="1"/>
       <c r="AF349" s="1"/>
     </row>
-    <row r="350" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -13077,7 +13077,7 @@
       <c r="AE350" s="1"/>
       <c r="AF350" s="1"/>
     </row>
-    <row r="351" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -13111,7 +13111,7 @@
       <c r="AE351" s="1"/>
       <c r="AF351" s="1"/>
     </row>
-    <row r="352" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -13145,7 +13145,7 @@
       <c r="AE352" s="1"/>
       <c r="AF352" s="1"/>
     </row>
-    <row r="353" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -13179,7 +13179,7 @@
       <c r="AE353" s="1"/>
       <c r="AF353" s="1"/>
     </row>
-    <row r="354" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -13213,7 +13213,7 @@
       <c r="AE354" s="1"/>
       <c r="AF354" s="1"/>
     </row>
-    <row r="355" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -13247,7 +13247,7 @@
       <c r="AE355" s="1"/>
       <c r="AF355" s="1"/>
     </row>
-    <row r="356" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -13281,7 +13281,7 @@
       <c r="AE356" s="1"/>
       <c r="AF356" s="1"/>
     </row>
-    <row r="357" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -13315,7 +13315,7 @@
       <c r="AE357" s="1"/>
       <c r="AF357" s="1"/>
     </row>
-    <row r="358" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -13349,7 +13349,7 @@
       <c r="AE358" s="1"/>
       <c r="AF358" s="1"/>
     </row>
-    <row r="359" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -13383,7 +13383,7 @@
       <c r="AE359" s="1"/>
       <c r="AF359" s="1"/>
     </row>
-    <row r="360" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -13417,7 +13417,7 @@
       <c r="AE360" s="1"/>
       <c r="AF360" s="1"/>
     </row>
-    <row r="361" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -13451,7 +13451,7 @@
       <c r="AE361" s="1"/>
       <c r="AF361" s="1"/>
     </row>
-    <row r="362" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -13485,7 +13485,7 @@
       <c r="AE362" s="1"/>
       <c r="AF362" s="1"/>
     </row>
-    <row r="363" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -13519,7 +13519,7 @@
       <c r="AE363" s="1"/>
       <c r="AF363" s="1"/>
     </row>
-    <row r="364" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -13553,7 +13553,7 @@
       <c r="AE364" s="1"/>
       <c r="AF364" s="1"/>
     </row>
-    <row r="365" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -13587,7 +13587,7 @@
       <c r="AE365" s="1"/>
       <c r="AF365" s="1"/>
     </row>
-    <row r="366" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -13621,7 +13621,7 @@
       <c r="AE366" s="1"/>
       <c r="AF366" s="1"/>
     </row>
-    <row r="367" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -13655,7 +13655,7 @@
       <c r="AE367" s="1"/>
       <c r="AF367" s="1"/>
     </row>
-    <row r="368" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -13689,7 +13689,7 @@
       <c r="AE368" s="1"/>
       <c r="AF368" s="1"/>
     </row>
-    <row r="369" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -13723,7 +13723,7 @@
       <c r="AE369" s="1"/>
       <c r="AF369" s="1"/>
     </row>
-    <row r="370" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -13757,7 +13757,7 @@
       <c r="AE370" s="1"/>
       <c r="AF370" s="1"/>
     </row>
-    <row r="371" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -13791,7 +13791,7 @@
       <c r="AE371" s="1"/>
       <c r="AF371" s="1"/>
     </row>
-    <row r="372" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -13825,7 +13825,7 @@
       <c r="AE372" s="1"/>
       <c r="AF372" s="1"/>
     </row>
-    <row r="373" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -13859,7 +13859,7 @@
       <c r="AE373" s="1"/>
       <c r="AF373" s="1"/>
     </row>
-    <row r="374" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -13893,7 +13893,7 @@
       <c r="AE374" s="1"/>
       <c r="AF374" s="1"/>
     </row>
-    <row r="375" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -13927,7 +13927,7 @@
       <c r="AE375" s="1"/>
       <c r="AF375" s="1"/>
     </row>
-    <row r="376" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -13961,7 +13961,7 @@
       <c r="AE376" s="1"/>
       <c r="AF376" s="1"/>
     </row>
-    <row r="377" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -13995,7 +13995,7 @@
       <c r="AE377" s="1"/>
       <c r="AF377" s="1"/>
     </row>
-    <row r="378" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -14029,7 +14029,7 @@
       <c r="AE378" s="1"/>
       <c r="AF378" s="1"/>
     </row>
-    <row r="379" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -14063,7 +14063,7 @@
       <c r="AE379" s="1"/>
       <c r="AF379" s="1"/>
     </row>
-    <row r="380" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -14097,7 +14097,7 @@
       <c r="AE380" s="1"/>
       <c r="AF380" s="1"/>
     </row>
-    <row r="381" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -14131,7 +14131,7 @@
       <c r="AE381" s="1"/>
       <c r="AF381" s="1"/>
     </row>
-    <row r="382" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -14165,7 +14165,7 @@
       <c r="AE382" s="1"/>
       <c r="AF382" s="1"/>
     </row>
-    <row r="383" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -14199,7 +14199,7 @@
       <c r="AE383" s="1"/>
       <c r="AF383" s="1"/>
     </row>
-    <row r="384" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -14233,7 +14233,7 @@
       <c r="AE384" s="1"/>
       <c r="AF384" s="1"/>
     </row>
-    <row r="385" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -14267,7 +14267,7 @@
       <c r="AE385" s="1"/>
       <c r="AF385" s="1"/>
     </row>
-    <row r="386" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -14301,7 +14301,7 @@
       <c r="AE386" s="1"/>
       <c r="AF386" s="1"/>
     </row>
-    <row r="387" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -14335,7 +14335,7 @@
       <c r="AE387" s="1"/>
       <c r="AF387" s="1"/>
     </row>
-    <row r="388" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -14369,7 +14369,7 @@
       <c r="AE388" s="1"/>
       <c r="AF388" s="1"/>
     </row>
-    <row r="389" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -14403,7 +14403,7 @@
       <c r="AE389" s="1"/>
       <c r="AF389" s="1"/>
     </row>
-    <row r="390" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -14437,7 +14437,7 @@
       <c r="AE390" s="1"/>
       <c r="AF390" s="1"/>
     </row>
-    <row r="391" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -14471,7 +14471,7 @@
       <c r="AE391" s="1"/>
       <c r="AF391" s="1"/>
     </row>
-    <row r="392" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -14505,7 +14505,7 @@
       <c r="AE392" s="1"/>
       <c r="AF392" s="1"/>
     </row>
-    <row r="393" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -14539,7 +14539,7 @@
       <c r="AE393" s="1"/>
       <c r="AF393" s="1"/>
     </row>
-    <row r="394" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -14573,7 +14573,7 @@
       <c r="AE394" s="1"/>
       <c r="AF394" s="1"/>
     </row>
-    <row r="395" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -14607,7 +14607,7 @@
       <c r="AE395" s="1"/>
       <c r="AF395" s="1"/>
     </row>
-    <row r="396" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -14641,7 +14641,7 @@
       <c r="AE396" s="1"/>
       <c r="AF396" s="1"/>
     </row>
-    <row r="397" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -14675,7 +14675,7 @@
       <c r="AE397" s="1"/>
       <c r="AF397" s="1"/>
     </row>
-    <row r="398" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -14709,7 +14709,7 @@
       <c r="AE398" s="1"/>
       <c r="AF398" s="1"/>
     </row>
-    <row r="399" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -14743,7 +14743,7 @@
       <c r="AE399" s="1"/>
       <c r="AF399" s="1"/>
     </row>
-    <row r="400" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -14777,7 +14777,7 @@
       <c r="AE400" s="1"/>
       <c r="AF400" s="1"/>
     </row>
-    <row r="401" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -14811,7 +14811,7 @@
       <c r="AE401" s="1"/>
       <c r="AF401" s="1"/>
     </row>
-    <row r="402" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -14845,7 +14845,7 @@
       <c r="AE402" s="1"/>
       <c r="AF402" s="1"/>
     </row>
-    <row r="403" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -14879,7 +14879,7 @@
       <c r="AE403" s="1"/>
       <c r="AF403" s="1"/>
     </row>
-    <row r="404" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -14913,7 +14913,7 @@
       <c r="AE404" s="1"/>
       <c r="AF404" s="1"/>
     </row>
-    <row r="405" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -14947,7 +14947,7 @@
       <c r="AE405" s="1"/>
       <c r="AF405" s="1"/>
     </row>
-    <row r="406" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -14981,7 +14981,7 @@
       <c r="AE406" s="1"/>
       <c r="AF406" s="1"/>
     </row>
-    <row r="407" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -15015,7 +15015,7 @@
       <c r="AE407" s="1"/>
       <c r="AF407" s="1"/>
     </row>
-    <row r="408" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -15049,7 +15049,7 @@
       <c r="AE408" s="1"/>
       <c r="AF408" s="1"/>
     </row>
-    <row r="409" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -15083,7 +15083,7 @@
       <c r="AE409" s="1"/>
       <c r="AF409" s="1"/>
     </row>
-    <row r="410" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -15117,7 +15117,7 @@
       <c r="AE410" s="1"/>
       <c r="AF410" s="1"/>
     </row>
-    <row r="411" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -15151,7 +15151,7 @@
       <c r="AE411" s="1"/>
       <c r="AF411" s="1"/>
     </row>
-    <row r="412" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -15185,7 +15185,7 @@
       <c r="AE412" s="1"/>
       <c r="AF412" s="1"/>
     </row>
-    <row r="413" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -15219,7 +15219,7 @@
       <c r="AE413" s="1"/>
       <c r="AF413" s="1"/>
     </row>
-    <row r="414" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -15253,7 +15253,7 @@
       <c r="AE414" s="1"/>
       <c r="AF414" s="1"/>
     </row>
-    <row r="415" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -15287,7 +15287,7 @@
       <c r="AE415" s="1"/>
       <c r="AF415" s="1"/>
     </row>
-    <row r="416" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -15321,7 +15321,7 @@
       <c r="AE416" s="1"/>
       <c r="AF416" s="1"/>
     </row>
-    <row r="417" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -15355,7 +15355,7 @@
       <c r="AE417" s="1"/>
       <c r="AF417" s="1"/>
     </row>
-    <row r="418" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -15389,7 +15389,7 @@
       <c r="AE418" s="1"/>
       <c r="AF418" s="1"/>
     </row>
-    <row r="419" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -15423,7 +15423,7 @@
       <c r="AE419" s="1"/>
       <c r="AF419" s="1"/>
     </row>
-    <row r="420" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -15457,7 +15457,7 @@
       <c r="AE420" s="1"/>
       <c r="AF420" s="1"/>
     </row>
-    <row r="421" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -15491,7 +15491,7 @@
       <c r="AE421" s="1"/>
       <c r="AF421" s="1"/>
     </row>
-    <row r="422" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -15525,7 +15525,7 @@
       <c r="AE422" s="1"/>
       <c r="AF422" s="1"/>
     </row>
-    <row r="423" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -15559,7 +15559,7 @@
       <c r="AE423" s="1"/>
       <c r="AF423" s="1"/>
     </row>
-    <row r="424" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -15593,7 +15593,7 @@
       <c r="AE424" s="1"/>
       <c r="AF424" s="1"/>
     </row>
-    <row r="425" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -15627,7 +15627,7 @@
       <c r="AE425" s="1"/>
       <c r="AF425" s="1"/>
     </row>
-    <row r="426" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -15661,7 +15661,7 @@
       <c r="AE426" s="1"/>
       <c r="AF426" s="1"/>
     </row>
-    <row r="427" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -15695,7 +15695,7 @@
       <c r="AE427" s="1"/>
       <c r="AF427" s="1"/>
     </row>
-    <row r="428" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -15729,7 +15729,7 @@
       <c r="AE428" s="1"/>
       <c r="AF428" s="1"/>
     </row>
-    <row r="429" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -15763,7 +15763,7 @@
       <c r="AE429" s="1"/>
       <c r="AF429" s="1"/>
     </row>
-    <row r="430" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -15797,7 +15797,7 @@
       <c r="AE430" s="1"/>
       <c r="AF430" s="1"/>
     </row>
-    <row r="431" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -15831,7 +15831,7 @@
       <c r="AE431" s="1"/>
       <c r="AF431" s="1"/>
     </row>
-    <row r="432" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -15865,7 +15865,7 @@
       <c r="AE432" s="1"/>
       <c r="AF432" s="1"/>
     </row>
-    <row r="433" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -15899,7 +15899,7 @@
       <c r="AE433" s="1"/>
       <c r="AF433" s="1"/>
     </row>
-    <row r="434" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -15933,7 +15933,7 @@
       <c r="AE434" s="1"/>
       <c r="AF434" s="1"/>
     </row>
-    <row r="435" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -15967,7 +15967,7 @@
       <c r="AE435" s="1"/>
       <c r="AF435" s="1"/>
     </row>
-    <row r="436" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -16001,7 +16001,7 @@
       <c r="AE436" s="1"/>
       <c r="AF436" s="1"/>
     </row>
-    <row r="437" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -16035,7 +16035,7 @@
       <c r="AE437" s="1"/>
       <c r="AF437" s="1"/>
     </row>
-    <row r="438" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -16069,7 +16069,7 @@
       <c r="AE438" s="1"/>
       <c r="AF438" s="1"/>
     </row>
-    <row r="439" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -16103,7 +16103,7 @@
       <c r="AE439" s="1"/>
       <c r="AF439" s="1"/>
     </row>
-    <row r="440" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -16137,7 +16137,7 @@
       <c r="AE440" s="1"/>
       <c r="AF440" s="1"/>
     </row>
-    <row r="441" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -16171,7 +16171,7 @@
       <c r="AE441" s="1"/>
       <c r="AF441" s="1"/>
     </row>
-    <row r="442" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -16205,7 +16205,7 @@
       <c r="AE442" s="1"/>
       <c r="AF442" s="1"/>
     </row>
-    <row r="443" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -16239,7 +16239,7 @@
       <c r="AE443" s="1"/>
       <c r="AF443" s="1"/>
     </row>
-    <row r="444" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -16273,7 +16273,7 @@
       <c r="AE444" s="1"/>
       <c r="AF444" s="1"/>
     </row>
-    <row r="445" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -16307,7 +16307,7 @@
       <c r="AE445" s="1"/>
       <c r="AF445" s="1"/>
     </row>
-    <row r="446" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -16341,7 +16341,7 @@
       <c r="AE446" s="1"/>
       <c r="AF446" s="1"/>
     </row>
-    <row r="447" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -16375,7 +16375,7 @@
       <c r="AE447" s="1"/>
       <c r="AF447" s="1"/>
     </row>
-    <row r="448" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -16409,7 +16409,7 @@
       <c r="AE448" s="1"/>
       <c r="AF448" s="1"/>
     </row>
-    <row r="449" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -16443,7 +16443,7 @@
       <c r="AE449" s="1"/>
       <c r="AF449" s="1"/>
     </row>
-    <row r="450" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -16477,7 +16477,7 @@
       <c r="AE450" s="1"/>
       <c r="AF450" s="1"/>
     </row>
-    <row r="451" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -16511,7 +16511,7 @@
       <c r="AE451" s="1"/>
       <c r="AF451" s="1"/>
     </row>
-    <row r="452" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -16545,7 +16545,7 @@
       <c r="AE452" s="1"/>
       <c r="AF452" s="1"/>
     </row>
-    <row r="453" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -16579,7 +16579,7 @@
       <c r="AE453" s="1"/>
       <c r="AF453" s="1"/>
     </row>
-    <row r="454" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -16613,7 +16613,7 @@
       <c r="AE454" s="1"/>
       <c r="AF454" s="1"/>
     </row>
-    <row r="455" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -16647,7 +16647,7 @@
       <c r="AE455" s="1"/>
       <c r="AF455" s="1"/>
     </row>
-    <row r="456" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -16681,7 +16681,7 @@
       <c r="AE456" s="1"/>
       <c r="AF456" s="1"/>
     </row>
-    <row r="457" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -16715,7 +16715,7 @@
       <c r="AE457" s="1"/>
       <c r="AF457" s="1"/>
     </row>
-    <row r="458" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -16749,7 +16749,7 @@
       <c r="AE458" s="1"/>
       <c r="AF458" s="1"/>
     </row>
-    <row r="459" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -16783,7 +16783,7 @@
       <c r="AE459" s="1"/>
       <c r="AF459" s="1"/>
     </row>
-    <row r="460" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -16817,7 +16817,7 @@
       <c r="AE460" s="1"/>
       <c r="AF460" s="1"/>
     </row>
-    <row r="461" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -16851,7 +16851,7 @@
       <c r="AE461" s="1"/>
       <c r="AF461" s="1"/>
     </row>
-    <row r="462" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -16885,7 +16885,7 @@
       <c r="AE462" s="1"/>
       <c r="AF462" s="1"/>
     </row>
-    <row r="463" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -16919,7 +16919,7 @@
       <c r="AE463" s="1"/>
       <c r="AF463" s="1"/>
     </row>
-    <row r="464" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -16953,7 +16953,7 @@
       <c r="AE464" s="1"/>
       <c r="AF464" s="1"/>
     </row>
-    <row r="465" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -16987,7 +16987,7 @@
       <c r="AE465" s="1"/>
       <c r="AF465" s="1"/>
     </row>
-    <row r="466" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -17021,7 +17021,7 @@
       <c r="AE466" s="1"/>
       <c r="AF466" s="1"/>
     </row>
-    <row r="467" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -17055,7 +17055,7 @@
       <c r="AE467" s="1"/>
       <c r="AF467" s="1"/>
     </row>
-    <row r="468" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -17089,7 +17089,7 @@
       <c r="AE468" s="1"/>
       <c r="AF468" s="1"/>
     </row>
-    <row r="469" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -17123,7 +17123,7 @@
       <c r="AE469" s="1"/>
       <c r="AF469" s="1"/>
     </row>
-    <row r="470" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -17157,7 +17157,7 @@
       <c r="AE470" s="1"/>
       <c r="AF470" s="1"/>
     </row>
-    <row r="471" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -17191,7 +17191,7 @@
       <c r="AE471" s="1"/>
       <c r="AF471" s="1"/>
     </row>
-    <row r="472" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -17225,7 +17225,7 @@
       <c r="AE472" s="1"/>
       <c r="AF472" s="1"/>
     </row>
-    <row r="473" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -17259,7 +17259,7 @@
       <c r="AE473" s="1"/>
       <c r="AF473" s="1"/>
     </row>
-    <row r="474" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -17293,7 +17293,7 @@
       <c r="AE474" s="1"/>
       <c r="AF474" s="1"/>
     </row>
-    <row r="475" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -17327,7 +17327,7 @@
       <c r="AE475" s="1"/>
       <c r="AF475" s="1"/>
     </row>
-    <row r="476" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -17361,7 +17361,7 @@
       <c r="AE476" s="1"/>
       <c r="AF476" s="1"/>
     </row>
-    <row r="477" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -17395,7 +17395,7 @@
       <c r="AE477" s="1"/>
       <c r="AF477" s="1"/>
     </row>
-    <row r="478" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -17429,7 +17429,7 @@
       <c r="AE478" s="1"/>
       <c r="AF478" s="1"/>
     </row>
-    <row r="479" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -17463,7 +17463,7 @@
       <c r="AE479" s="1"/>
       <c r="AF479" s="1"/>
     </row>
-    <row r="480" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -17497,7 +17497,7 @@
       <c r="AE480" s="1"/>
       <c r="AF480" s="1"/>
     </row>
-    <row r="481" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -17531,7 +17531,7 @@
       <c r="AE481" s="1"/>
       <c r="AF481" s="1"/>
     </row>
-    <row r="482" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -17565,7 +17565,7 @@
       <c r="AE482" s="1"/>
       <c r="AF482" s="1"/>
     </row>
-    <row r="483" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -17599,7 +17599,7 @@
       <c r="AE483" s="1"/>
       <c r="AF483" s="1"/>
     </row>
-    <row r="484" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -17633,7 +17633,7 @@
       <c r="AE484" s="1"/>
       <c r="AF484" s="1"/>
     </row>
-    <row r="485" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -17667,7 +17667,7 @@
       <c r="AE485" s="1"/>
       <c r="AF485" s="1"/>
     </row>
-    <row r="486" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -17701,7 +17701,7 @@
       <c r="AE486" s="1"/>
       <c r="AF486" s="1"/>
     </row>
-    <row r="487" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -17735,7 +17735,7 @@
       <c r="AE487" s="1"/>
       <c r="AF487" s="1"/>
     </row>
-    <row r="488" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -17769,7 +17769,7 @@
       <c r="AE488" s="1"/>
       <c r="AF488" s="1"/>
     </row>
-    <row r="489" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -17803,7 +17803,7 @@
       <c r="AE489" s="1"/>
       <c r="AF489" s="1"/>
     </row>
-    <row r="490" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -17837,7 +17837,7 @@
       <c r="AE490" s="1"/>
       <c r="AF490" s="1"/>
     </row>
-    <row r="491" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -17871,7 +17871,7 @@
       <c r="AE491" s="1"/>
       <c r="AF491" s="1"/>
     </row>
-    <row r="492" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -17905,7 +17905,7 @@
       <c r="AE492" s="1"/>
       <c r="AF492" s="1"/>
     </row>
-    <row r="493" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -17939,7 +17939,7 @@
       <c r="AE493" s="1"/>
       <c r="AF493" s="1"/>
     </row>
-    <row r="494" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -17973,7 +17973,7 @@
       <c r="AE494" s="1"/>
       <c r="AF494" s="1"/>
     </row>
-    <row r="495" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -18007,7 +18007,7 @@
       <c r="AE495" s="1"/>
       <c r="AF495" s="1"/>
     </row>
-    <row r="496" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -18041,7 +18041,7 @@
       <c r="AE496" s="1"/>
       <c r="AF496" s="1"/>
     </row>
-    <row r="497" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -18075,7 +18075,7 @@
       <c r="AE497" s="1"/>
       <c r="AF497" s="1"/>
     </row>
-    <row r="498" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -18109,7 +18109,7 @@
       <c r="AE498" s="1"/>
       <c r="AF498" s="1"/>
     </row>
-    <row r="499" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -18143,7 +18143,7 @@
       <c r="AE499" s="1"/>
       <c r="AF499" s="1"/>
     </row>
-    <row r="500" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -18177,7 +18177,7 @@
       <c r="AE500" s="1"/>
       <c r="AF500" s="1"/>
     </row>
-    <row r="501" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -18211,7 +18211,7 @@
       <c r="AE501" s="1"/>
       <c r="AF501" s="1"/>
     </row>
-    <row r="502" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -18245,7 +18245,7 @@
       <c r="AE502" s="1"/>
       <c r="AF502" s="1"/>
     </row>
-    <row r="503" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -18279,7 +18279,7 @@
       <c r="AE503" s="1"/>
       <c r="AF503" s="1"/>
     </row>
-    <row r="504" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -18313,7 +18313,7 @@
       <c r="AE504" s="1"/>
       <c r="AF504" s="1"/>
     </row>
-    <row r="505" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -18347,7 +18347,7 @@
       <c r="AE505" s="1"/>
       <c r="AF505" s="1"/>
     </row>
-    <row r="506" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -18381,7 +18381,7 @@
       <c r="AE506" s="1"/>
       <c r="AF506" s="1"/>
     </row>
-    <row r="507" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -18415,7 +18415,7 @@
       <c r="AE507" s="1"/>
       <c r="AF507" s="1"/>
     </row>
-    <row r="508" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -18449,7 +18449,7 @@
       <c r="AE508" s="1"/>
       <c r="AF508" s="1"/>
     </row>
-    <row r="509" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -18483,7 +18483,7 @@
       <c r="AE509" s="1"/>
       <c r="AF509" s="1"/>
     </row>
-    <row r="510" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -18517,7 +18517,7 @@
       <c r="AE510" s="1"/>
       <c r="AF510" s="1"/>
     </row>
-    <row r="511" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -18551,7 +18551,7 @@
       <c r="AE511" s="1"/>
       <c r="AF511" s="1"/>
     </row>
-    <row r="512" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -18585,7 +18585,7 @@
       <c r="AE512" s="1"/>
       <c r="AF512" s="1"/>
     </row>
-    <row r="513" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -18619,7 +18619,7 @@
       <c r="AE513" s="1"/>
       <c r="AF513" s="1"/>
     </row>
-    <row r="514" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -18653,7 +18653,7 @@
       <c r="AE514" s="1"/>
       <c r="AF514" s="1"/>
     </row>
-    <row r="515" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -18687,7 +18687,7 @@
       <c r="AE515" s="1"/>
       <c r="AF515" s="1"/>
     </row>
-    <row r="516" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -18721,7 +18721,7 @@
       <c r="AE516" s="1"/>
       <c r="AF516" s="1"/>
     </row>
-    <row r="517" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -18755,7 +18755,7 @@
       <c r="AE517" s="1"/>
       <c r="AF517" s="1"/>
     </row>
-    <row r="518" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -18789,7 +18789,7 @@
       <c r="AE518" s="1"/>
       <c r="AF518" s="1"/>
     </row>
-    <row r="519" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -18823,7 +18823,7 @@
       <c r="AE519" s="1"/>
       <c r="AF519" s="1"/>
     </row>
-    <row r="520" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -18857,7 +18857,7 @@
       <c r="AE520" s="1"/>
       <c r="AF520" s="1"/>
     </row>
-    <row r="521" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -18891,7 +18891,7 @@
       <c r="AE521" s="1"/>
       <c r="AF521" s="1"/>
     </row>
-    <row r="522" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -18925,7 +18925,7 @@
       <c r="AE522" s="1"/>
       <c r="AF522" s="1"/>
     </row>
-    <row r="523" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -18959,7 +18959,7 @@
       <c r="AE523" s="1"/>
       <c r="AF523" s="1"/>
     </row>
-    <row r="524" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -18993,7 +18993,7 @@
       <c r="AE524" s="1"/>
       <c r="AF524" s="1"/>
     </row>
-    <row r="525" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -19027,7 +19027,7 @@
       <c r="AE525" s="1"/>
       <c r="AF525" s="1"/>
     </row>
-    <row r="526" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -19061,7 +19061,7 @@
       <c r="AE526" s="1"/>
       <c r="AF526" s="1"/>
     </row>
-    <row r="527" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -19095,7 +19095,7 @@
       <c r="AE527" s="1"/>
       <c r="AF527" s="1"/>
     </row>
-    <row r="528" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -19129,7 +19129,7 @@
       <c r="AE528" s="1"/>
       <c r="AF528" s="1"/>
     </row>
-    <row r="529" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -19163,7 +19163,7 @@
       <c r="AE529" s="1"/>
       <c r="AF529" s="1"/>
     </row>
-    <row r="530" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -19197,7 +19197,7 @@
       <c r="AE530" s="1"/>
       <c r="AF530" s="1"/>
     </row>
-    <row r="531" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -19231,7 +19231,7 @@
       <c r="AE531" s="1"/>
       <c r="AF531" s="1"/>
     </row>
-    <row r="532" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -19265,7 +19265,7 @@
       <c r="AE532" s="1"/>
       <c r="AF532" s="1"/>
     </row>
-    <row r="533" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -19299,7 +19299,7 @@
       <c r="AE533" s="1"/>
       <c r="AF533" s="1"/>
     </row>
-    <row r="534" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -19333,7 +19333,7 @@
       <c r="AE534" s="1"/>
       <c r="AF534" s="1"/>
     </row>
-    <row r="535" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -19367,7 +19367,7 @@
       <c r="AE535" s="1"/>
       <c r="AF535" s="1"/>
     </row>
-    <row r="536" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -19401,7 +19401,7 @@
       <c r="AE536" s="1"/>
       <c r="AF536" s="1"/>
     </row>
-    <row r="537" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -19435,7 +19435,7 @@
       <c r="AE537" s="1"/>
       <c r="AF537" s="1"/>
     </row>
-    <row r="538" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -19469,7 +19469,7 @@
       <c r="AE538" s="1"/>
       <c r="AF538" s="1"/>
     </row>
-    <row r="539" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -19503,7 +19503,7 @@
       <c r="AE539" s="1"/>
       <c r="AF539" s="1"/>
     </row>
-    <row r="540" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -19537,7 +19537,7 @@
       <c r="AE540" s="1"/>
       <c r="AF540" s="1"/>
     </row>
-    <row r="541" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -19571,7 +19571,7 @@
       <c r="AE541" s="1"/>
       <c r="AF541" s="1"/>
     </row>
-    <row r="542" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -19605,7 +19605,7 @@
       <c r="AE542" s="1"/>
       <c r="AF542" s="1"/>
     </row>
-    <row r="543" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -19639,7 +19639,7 @@
       <c r="AE543" s="1"/>
       <c r="AF543" s="1"/>
     </row>
-    <row r="544" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -19673,7 +19673,7 @@
       <c r="AE544" s="1"/>
       <c r="AF544" s="1"/>
     </row>
-    <row r="545" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -19707,7 +19707,7 @@
       <c r="AE545" s="1"/>
       <c r="AF545" s="1"/>
     </row>
-    <row r="546" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -19741,7 +19741,7 @@
       <c r="AE546" s="1"/>
       <c r="AF546" s="1"/>
     </row>
-    <row r="547" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -19775,7 +19775,7 @@
       <c r="AE547" s="1"/>
       <c r="AF547" s="1"/>
     </row>
-    <row r="548" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -19809,7 +19809,7 @@
       <c r="AE548" s="1"/>
       <c r="AF548" s="1"/>
     </row>
-    <row r="549" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -19843,7 +19843,7 @@
       <c r="AE549" s="1"/>
       <c r="AF549" s="1"/>
     </row>
-    <row r="550" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -19877,7 +19877,7 @@
       <c r="AE550" s="1"/>
       <c r="AF550" s="1"/>
     </row>
-    <row r="551" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -19911,7 +19911,7 @@
       <c r="AE551" s="1"/>
       <c r="AF551" s="1"/>
     </row>
-    <row r="552" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -19945,7 +19945,7 @@
       <c r="AE552" s="1"/>
       <c r="AF552" s="1"/>
     </row>
-    <row r="553" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -19979,7 +19979,7 @@
       <c r="AE553" s="1"/>
       <c r="AF553" s="1"/>
     </row>
-    <row r="554" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -20013,7 +20013,7 @@
       <c r="AE554" s="1"/>
       <c r="AF554" s="1"/>
     </row>
-    <row r="555" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -20047,7 +20047,7 @@
       <c r="AE555" s="1"/>
       <c r="AF555" s="1"/>
     </row>
-    <row r="556" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -20081,7 +20081,7 @@
       <c r="AE556" s="1"/>
       <c r="AF556" s="1"/>
     </row>
-    <row r="557" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -20115,7 +20115,7 @@
       <c r="AE557" s="1"/>
       <c r="AF557" s="1"/>
     </row>
-    <row r="558" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -20149,7 +20149,7 @@
       <c r="AE558" s="1"/>
       <c r="AF558" s="1"/>
     </row>
-    <row r="559" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -20183,7 +20183,7 @@
       <c r="AE559" s="1"/>
       <c r="AF559" s="1"/>
     </row>
-    <row r="560" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -20217,7 +20217,7 @@
       <c r="AE560" s="1"/>
       <c r="AF560" s="1"/>
     </row>
-    <row r="561" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -20251,7 +20251,7 @@
       <c r="AE561" s="1"/>
       <c r="AF561" s="1"/>
     </row>
-    <row r="562" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -20285,7 +20285,7 @@
       <c r="AE562" s="1"/>
       <c r="AF562" s="1"/>
     </row>
-    <row r="563" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -20319,7 +20319,7 @@
       <c r="AE563" s="1"/>
       <c r="AF563" s="1"/>
     </row>
-    <row r="564" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -20353,7 +20353,7 @@
       <c r="AE564" s="1"/>
       <c r="AF564" s="1"/>
     </row>
-    <row r="565" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -20387,7 +20387,7 @@
       <c r="AE565" s="1"/>
       <c r="AF565" s="1"/>
     </row>
-    <row r="566" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -20421,7 +20421,7 @@
       <c r="AE566" s="1"/>
       <c r="AF566" s="1"/>
     </row>
-    <row r="567" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -20455,7 +20455,7 @@
       <c r="AE567" s="1"/>
       <c r="AF567" s="1"/>
     </row>
-    <row r="568" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -20489,7 +20489,7 @@
       <c r="AE568" s="1"/>
       <c r="AF568" s="1"/>
     </row>
-    <row r="569" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -20523,7 +20523,7 @@
       <c r="AE569" s="1"/>
       <c r="AF569" s="1"/>
     </row>
-    <row r="570" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -20557,7 +20557,7 @@
       <c r="AE570" s="1"/>
       <c r="AF570" s="1"/>
     </row>
-    <row r="571" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -20591,7 +20591,7 @@
       <c r="AE571" s="1"/>
       <c r="AF571" s="1"/>
     </row>
-    <row r="572" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -20625,7 +20625,7 @@
       <c r="AE572" s="1"/>
       <c r="AF572" s="1"/>
     </row>
-    <row r="573" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -20659,7 +20659,7 @@
       <c r="AE573" s="1"/>
       <c r="AF573" s="1"/>
     </row>
-    <row r="574" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -20693,7 +20693,7 @@
       <c r="AE574" s="1"/>
       <c r="AF574" s="1"/>
     </row>
-    <row r="575" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -20727,7 +20727,7 @@
       <c r="AE575" s="1"/>
       <c r="AF575" s="1"/>
     </row>
-    <row r="576" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -20761,7 +20761,7 @@
       <c r="AE576" s="1"/>
       <c r="AF576" s="1"/>
     </row>
-    <row r="577" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -20795,7 +20795,7 @@
       <c r="AE577" s="1"/>
       <c r="AF577" s="1"/>
     </row>
-    <row r="578" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -20829,7 +20829,7 @@
       <c r="AE578" s="1"/>
       <c r="AF578" s="1"/>
     </row>
-    <row r="579" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -20863,7 +20863,7 @@
       <c r="AE579" s="1"/>
       <c r="AF579" s="1"/>
     </row>
-    <row r="580" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -20897,7 +20897,7 @@
       <c r="AE580" s="1"/>
       <c r="AF580" s="1"/>
     </row>
-    <row r="581" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -20931,7 +20931,7 @@
       <c r="AE581" s="1"/>
       <c r="AF581" s="1"/>
     </row>
-    <row r="582" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -20965,7 +20965,7 @@
       <c r="AE582" s="1"/>
       <c r="AF582" s="1"/>
     </row>
-    <row r="583" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -20999,7 +20999,7 @@
       <c r="AE583" s="1"/>
       <c r="AF583" s="1"/>
     </row>
-    <row r="584" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -21033,7 +21033,7 @@
       <c r="AE584" s="1"/>
       <c r="AF584" s="1"/>
     </row>
-    <row r="585" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -21067,7 +21067,7 @@
       <c r="AE585" s="1"/>
       <c r="AF585" s="1"/>
     </row>
-    <row r="586" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -21101,7 +21101,7 @@
       <c r="AE586" s="1"/>
       <c r="AF586" s="1"/>
     </row>
-    <row r="587" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -21135,7 +21135,7 @@
       <c r="AE587" s="1"/>
       <c r="AF587" s="1"/>
     </row>
-    <row r="588" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -21169,7 +21169,7 @@
       <c r="AE588" s="1"/>
       <c r="AF588" s="1"/>
     </row>
-    <row r="589" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -21203,7 +21203,7 @@
       <c r="AE589" s="1"/>
       <c r="AF589" s="1"/>
     </row>
-    <row r="590" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -21237,7 +21237,7 @@
       <c r="AE590" s="1"/>
       <c r="AF590" s="1"/>
     </row>
-    <row r="591" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -21271,7 +21271,7 @@
       <c r="AE591" s="1"/>
       <c r="AF591" s="1"/>
     </row>
-    <row r="592" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -21305,7 +21305,7 @@
       <c r="AE592" s="1"/>
       <c r="AF592" s="1"/>
     </row>
-    <row r="593" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -21339,7 +21339,7 @@
       <c r="AE593" s="1"/>
       <c r="AF593" s="1"/>
     </row>
-    <row r="594" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -21373,7 +21373,7 @@
       <c r="AE594" s="1"/>
       <c r="AF594" s="1"/>
     </row>
-    <row r="595" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -21407,7 +21407,7 @@
       <c r="AE595" s="1"/>
       <c r="AF595" s="1"/>
     </row>
-    <row r="596" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -21441,7 +21441,7 @@
       <c r="AE596" s="1"/>
       <c r="AF596" s="1"/>
     </row>
-    <row r="597" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -21475,7 +21475,7 @@
       <c r="AE597" s="1"/>
       <c r="AF597" s="1"/>
     </row>
-    <row r="598" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -21509,7 +21509,7 @@
       <c r="AE598" s="1"/>
       <c r="AF598" s="1"/>
     </row>
-    <row r="599" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -21543,7 +21543,7 @@
       <c r="AE599" s="1"/>
       <c r="AF599" s="1"/>
     </row>
-    <row r="600" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -21577,7 +21577,7 @@
       <c r="AE600" s="1"/>
       <c r="AF600" s="1"/>
     </row>
-    <row r="601" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -21611,7 +21611,7 @@
       <c r="AE601" s="1"/>
       <c r="AF601" s="1"/>
     </row>
-    <row r="602" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -21645,7 +21645,7 @@
       <c r="AE602" s="1"/>
       <c r="AF602" s="1"/>
     </row>
-    <row r="603" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -21679,7 +21679,7 @@
       <c r="AE603" s="1"/>
       <c r="AF603" s="1"/>
     </row>
-    <row r="604" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -21713,7 +21713,7 @@
       <c r="AE604" s="1"/>
       <c r="AF604" s="1"/>
     </row>
-    <row r="605" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -21747,7 +21747,7 @@
       <c r="AE605" s="1"/>
       <c r="AF605" s="1"/>
     </row>
-    <row r="606" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -21781,7 +21781,7 @@
       <c r="AE606" s="1"/>
       <c r="AF606" s="1"/>
     </row>
-    <row r="607" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -21815,7 +21815,7 @@
       <c r="AE607" s="1"/>
       <c r="AF607" s="1"/>
     </row>
-    <row r="608" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -21849,7 +21849,7 @@
       <c r="AE608" s="1"/>
       <c r="AF608" s="1"/>
     </row>
-    <row r="609" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -21883,7 +21883,7 @@
       <c r="AE609" s="1"/>
       <c r="AF609" s="1"/>
     </row>
-    <row r="610" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -21917,7 +21917,7 @@
       <c r="AE610" s="1"/>
       <c r="AF610" s="1"/>
     </row>
-    <row r="611" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -21951,7 +21951,7 @@
       <c r="AE611" s="1"/>
       <c r="AF611" s="1"/>
     </row>
-    <row r="612" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -21985,7 +21985,7 @@
       <c r="AE612" s="1"/>
       <c r="AF612" s="1"/>
     </row>
-    <row r="613" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -22019,7 +22019,7 @@
       <c r="AE613" s="1"/>
       <c r="AF613" s="1"/>
     </row>
-    <row r="614" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -22053,7 +22053,7 @@
       <c r="AE614" s="1"/>
       <c r="AF614" s="1"/>
     </row>
-    <row r="615" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -22087,7 +22087,7 @@
       <c r="AE615" s="1"/>
       <c r="AF615" s="1"/>
     </row>
-    <row r="616" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -22121,7 +22121,7 @@
       <c r="AE616" s="1"/>
       <c r="AF616" s="1"/>
     </row>
-    <row r="617" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -22155,7 +22155,7 @@
       <c r="AE617" s="1"/>
       <c r="AF617" s="1"/>
     </row>
-    <row r="618" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -22189,7 +22189,7 @@
       <c r="AE618" s="1"/>
       <c r="AF618" s="1"/>
     </row>
-    <row r="619" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -22223,7 +22223,7 @@
       <c r="AE619" s="1"/>
       <c r="AF619" s="1"/>
     </row>
-    <row r="620" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -22257,7 +22257,7 @@
       <c r="AE620" s="1"/>
       <c r="AF620" s="1"/>
     </row>
-    <row r="621" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -22291,7 +22291,7 @@
       <c r="AE621" s="1"/>
       <c r="AF621" s="1"/>
     </row>
-    <row r="622" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -22325,7 +22325,7 @@
       <c r="AE622" s="1"/>
       <c r="AF622" s="1"/>
     </row>
-    <row r="623" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -22359,7 +22359,7 @@
       <c r="AE623" s="1"/>
       <c r="AF623" s="1"/>
     </row>
-    <row r="624" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -22393,7 +22393,7 @@
       <c r="AE624" s="1"/>
       <c r="AF624" s="1"/>
     </row>
-    <row r="625" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -22427,7 +22427,7 @@
       <c r="AE625" s="1"/>
       <c r="AF625" s="1"/>
     </row>
-    <row r="626" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -22461,7 +22461,7 @@
       <c r="AE626" s="1"/>
       <c r="AF626" s="1"/>
     </row>
-    <row r="627" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -22495,7 +22495,7 @@
       <c r="AE627" s="1"/>
       <c r="AF627" s="1"/>
     </row>
-    <row r="628" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -22529,7 +22529,7 @@
       <c r="AE628" s="1"/>
       <c r="AF628" s="1"/>
     </row>
-    <row r="629" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -22563,7 +22563,7 @@
       <c r="AE629" s="1"/>
       <c r="AF629" s="1"/>
     </row>
-    <row r="630" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -22597,7 +22597,7 @@
       <c r="AE630" s="1"/>
       <c r="AF630" s="1"/>
     </row>
-    <row r="631" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -22631,7 +22631,7 @@
       <c r="AE631" s="1"/>
       <c r="AF631" s="1"/>
     </row>
-    <row r="632" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -22665,7 +22665,7 @@
       <c r="AE632" s="1"/>
       <c r="AF632" s="1"/>
     </row>
-    <row r="633" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -22699,7 +22699,7 @@
       <c r="AE633" s="1"/>
       <c r="AF633" s="1"/>
     </row>
-    <row r="634" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -22733,7 +22733,7 @@
       <c r="AE634" s="1"/>
       <c r="AF634" s="1"/>
     </row>
-    <row r="635" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -22767,7 +22767,7 @@
       <c r="AE635" s="1"/>
       <c r="AF635" s="1"/>
     </row>
-    <row r="636" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -22801,7 +22801,7 @@
       <c r="AE636" s="1"/>
       <c r="AF636" s="1"/>
     </row>
-    <row r="637" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -22835,7 +22835,7 @@
       <c r="AE637" s="1"/>
       <c r="AF637" s="1"/>
     </row>
-    <row r="638" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -22869,7 +22869,7 @@
       <c r="AE638" s="1"/>
       <c r="AF638" s="1"/>
     </row>
-    <row r="639" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -22903,7 +22903,7 @@
       <c r="AE639" s="1"/>
       <c r="AF639" s="1"/>
     </row>
-    <row r="640" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -22937,7 +22937,7 @@
       <c r="AE640" s="1"/>
       <c r="AF640" s="1"/>
     </row>
-    <row r="641" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -22971,7 +22971,7 @@
       <c r="AE641" s="1"/>
       <c r="AF641" s="1"/>
     </row>
-    <row r="642" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -23005,7 +23005,7 @@
       <c r="AE642" s="1"/>
       <c r="AF642" s="1"/>
     </row>
-    <row r="643" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -23039,7 +23039,7 @@
       <c r="AE643" s="1"/>
       <c r="AF643" s="1"/>
     </row>
-    <row r="644" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -23073,7 +23073,7 @@
       <c r="AE644" s="1"/>
       <c r="AF644" s="1"/>
     </row>
-    <row r="645" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -23107,7 +23107,7 @@
       <c r="AE645" s="1"/>
       <c r="AF645" s="1"/>
     </row>
-    <row r="646" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -23141,7 +23141,7 @@
       <c r="AE646" s="1"/>
       <c r="AF646" s="1"/>
     </row>
-    <row r="647" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -23175,7 +23175,7 @@
       <c r="AE647" s="1"/>
       <c r="AF647" s="1"/>
     </row>
-    <row r="648" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -23209,7 +23209,7 @@
       <c r="AE648" s="1"/>
       <c r="AF648" s="1"/>
     </row>
-    <row r="649" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -23243,7 +23243,7 @@
       <c r="AE649" s="1"/>
       <c r="AF649" s="1"/>
     </row>
-    <row r="650" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -23277,7 +23277,7 @@
       <c r="AE650" s="1"/>
       <c r="AF650" s="1"/>
     </row>
-    <row r="651" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -23311,7 +23311,7 @@
       <c r="AE651" s="1"/>
       <c r="AF651" s="1"/>
     </row>
-    <row r="652" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -23345,7 +23345,7 @@
       <c r="AE652" s="1"/>
       <c r="AF652" s="1"/>
     </row>
-    <row r="653" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -23379,7 +23379,7 @@
       <c r="AE653" s="1"/>
       <c r="AF653" s="1"/>
     </row>
-    <row r="654" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -23413,7 +23413,7 @@
       <c r="AE654" s="1"/>
       <c r="AF654" s="1"/>
     </row>
-    <row r="655" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -23447,7 +23447,7 @@
       <c r="AE655" s="1"/>
       <c r="AF655" s="1"/>
     </row>
-    <row r="656" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -23481,7 +23481,7 @@
       <c r="AE656" s="1"/>
       <c r="AF656" s="1"/>
     </row>
-    <row r="657" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -23515,7 +23515,7 @@
       <c r="AE657" s="1"/>
       <c r="AF657" s="1"/>
     </row>
-    <row r="658" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -23549,7 +23549,7 @@
       <c r="AE658" s="1"/>
       <c r="AF658" s="1"/>
     </row>
-    <row r="659" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -23583,7 +23583,7 @@
       <c r="AE659" s="1"/>
       <c r="AF659" s="1"/>
     </row>
-    <row r="660" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -23617,7 +23617,7 @@
       <c r="AE660" s="1"/>
       <c r="AF660" s="1"/>
     </row>
-    <row r="661" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -23651,7 +23651,7 @@
       <c r="AE661" s="1"/>
       <c r="AF661" s="1"/>
     </row>
-    <row r="662" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -23685,7 +23685,7 @@
       <c r="AE662" s="1"/>
       <c r="AF662" s="1"/>
     </row>
-    <row r="663" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -23719,7 +23719,7 @@
       <c r="AE663" s="1"/>
       <c r="AF663" s="1"/>
     </row>
-    <row r="664" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -23753,7 +23753,7 @@
       <c r="AE664" s="1"/>
       <c r="AF664" s="1"/>
     </row>
-    <row r="665" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -23787,7 +23787,7 @@
       <c r="AE665" s="1"/>
       <c r="AF665" s="1"/>
     </row>
-    <row r="666" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -23821,7 +23821,7 @@
       <c r="AE666" s="1"/>
       <c r="AF666" s="1"/>
     </row>
-    <row r="667" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -23855,7 +23855,7 @@
       <c r="AE667" s="1"/>
       <c r="AF667" s="1"/>
     </row>
-    <row r="668" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -23889,7 +23889,7 @@
       <c r="AE668" s="1"/>
       <c r="AF668" s="1"/>
     </row>
-    <row r="669" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -23923,7 +23923,7 @@
       <c r="AE669" s="1"/>
       <c r="AF669" s="1"/>
     </row>
-    <row r="670" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -23957,7 +23957,7 @@
       <c r="AE670" s="1"/>
       <c r="AF670" s="1"/>
     </row>
-    <row r="671" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -23991,7 +23991,7 @@
       <c r="AE671" s="1"/>
       <c r="AF671" s="1"/>
     </row>
-    <row r="672" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -24025,7 +24025,7 @@
       <c r="AE672" s="1"/>
       <c r="AF672" s="1"/>
     </row>
-    <row r="673" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -24059,7 +24059,7 @@
       <c r="AE673" s="1"/>
       <c r="AF673" s="1"/>
     </row>
-    <row r="674" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -24093,7 +24093,7 @@
       <c r="AE674" s="1"/>
       <c r="AF674" s="1"/>
     </row>
-    <row r="675" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -24127,7 +24127,7 @@
       <c r="AE675" s="1"/>
       <c r="AF675" s="1"/>
     </row>
-    <row r="676" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -24161,7 +24161,7 @@
       <c r="AE676" s="1"/>
       <c r="AF676" s="1"/>
     </row>
-    <row r="677" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -24195,7 +24195,7 @@
       <c r="AE677" s="1"/>
       <c r="AF677" s="1"/>
     </row>
-    <row r="678" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -24229,7 +24229,7 @@
       <c r="AE678" s="1"/>
       <c r="AF678" s="1"/>
     </row>
-    <row r="679" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -24263,7 +24263,7 @@
       <c r="AE679" s="1"/>
       <c r="AF679" s="1"/>
     </row>
-    <row r="680" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -24297,7 +24297,7 @@
       <c r="AE680" s="1"/>
       <c r="AF680" s="1"/>
     </row>
-    <row r="681" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -24331,7 +24331,7 @@
       <c r="AE681" s="1"/>
       <c r="AF681" s="1"/>
     </row>
-    <row r="682" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -24365,7 +24365,7 @@
       <c r="AE682" s="1"/>
       <c r="AF682" s="1"/>
     </row>
-    <row r="683" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -24399,7 +24399,7 @@
       <c r="AE683" s="1"/>
       <c r="AF683" s="1"/>
     </row>
-    <row r="684" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -24433,7 +24433,7 @@
       <c r="AE684" s="1"/>
       <c r="AF684" s="1"/>
     </row>
-    <row r="685" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -24467,7 +24467,7 @@
       <c r="AE685" s="1"/>
       <c r="AF685" s="1"/>
     </row>
-    <row r="686" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -24501,7 +24501,7 @@
       <c r="AE686" s="1"/>
       <c r="AF686" s="1"/>
     </row>
-    <row r="687" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -24535,7 +24535,7 @@
       <c r="AE687" s="1"/>
       <c r="AF687" s="1"/>
     </row>
-    <row r="688" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -24569,7 +24569,7 @@
       <c r="AE688" s="1"/>
       <c r="AF688" s="1"/>
     </row>
-    <row r="689" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -24603,7 +24603,7 @@
       <c r="AE689" s="1"/>
       <c r="AF689" s="1"/>
     </row>
-    <row r="690" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -24637,7 +24637,7 @@
       <c r="AE690" s="1"/>
       <c r="AF690" s="1"/>
     </row>
-    <row r="691" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -24671,7 +24671,7 @@
       <c r="AE691" s="1"/>
       <c r="AF691" s="1"/>
     </row>
-    <row r="692" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -24705,7 +24705,7 @@
       <c r="AE692" s="1"/>
       <c r="AF692" s="1"/>
     </row>
-    <row r="693" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -24739,7 +24739,7 @@
       <c r="AE693" s="1"/>
       <c r="AF693" s="1"/>
     </row>
-    <row r="694" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -24773,7 +24773,7 @@
       <c r="AE694" s="1"/>
       <c r="AF694" s="1"/>
     </row>
-    <row r="695" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -24807,7 +24807,7 @@
       <c r="AE695" s="1"/>
       <c r="AF695" s="1"/>
     </row>
-    <row r="696" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -24841,7 +24841,7 @@
       <c r="AE696" s="1"/>
       <c r="AF696" s="1"/>
     </row>
-    <row r="697" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -24875,7 +24875,7 @@
       <c r="AE697" s="1"/>
       <c r="AF697" s="1"/>
     </row>
-    <row r="698" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -24909,7 +24909,7 @@
       <c r="AE698" s="1"/>
       <c r="AF698" s="1"/>
     </row>
-    <row r="699" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -24943,7 +24943,7 @@
       <c r="AE699" s="1"/>
       <c r="AF699" s="1"/>
     </row>
-    <row r="700" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -24977,7 +24977,7 @@
       <c r="AE700" s="1"/>
       <c r="AF700" s="1"/>
     </row>
-    <row r="701" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -25011,7 +25011,7 @@
       <c r="AE701" s="1"/>
       <c r="AF701" s="1"/>
     </row>
-    <row r="702" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -25045,7 +25045,7 @@
       <c r="AE702" s="1"/>
       <c r="AF702" s="1"/>
     </row>
-    <row r="703" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -25079,7 +25079,7 @@
       <c r="AE703" s="1"/>
       <c r="AF703" s="1"/>
     </row>
-    <row r="704" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -25113,7 +25113,7 @@
       <c r="AE704" s="1"/>
       <c r="AF704" s="1"/>
     </row>
-    <row r="705" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -25147,7 +25147,7 @@
       <c r="AE705" s="1"/>
       <c r="AF705" s="1"/>
     </row>
-    <row r="706" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -25181,7 +25181,7 @@
       <c r="AE706" s="1"/>
       <c r="AF706" s="1"/>
     </row>
-    <row r="707" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -25215,7 +25215,7 @@
       <c r="AE707" s="1"/>
       <c r="AF707" s="1"/>
     </row>
-    <row r="708" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -25249,7 +25249,7 @@
       <c r="AE708" s="1"/>
       <c r="AF708" s="1"/>
     </row>
-    <row r="709" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -25283,7 +25283,7 @@
       <c r="AE709" s="1"/>
       <c r="AF709" s="1"/>
     </row>
-    <row r="710" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -25317,7 +25317,7 @@
       <c r="AE710" s="1"/>
       <c r="AF710" s="1"/>
     </row>
-    <row r="711" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -25351,7 +25351,7 @@
       <c r="AE711" s="1"/>
       <c r="AF711" s="1"/>
     </row>
-    <row r="712" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -25385,7 +25385,7 @@
       <c r="AE712" s="1"/>
       <c r="AF712" s="1"/>
     </row>
-    <row r="713" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -25419,7 +25419,7 @@
       <c r="AE713" s="1"/>
       <c r="AF713" s="1"/>
     </row>
-    <row r="714" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -25453,7 +25453,7 @@
       <c r="AE714" s="1"/>
       <c r="AF714" s="1"/>
     </row>
-    <row r="715" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -25487,7 +25487,7 @@
       <c r="AE715" s="1"/>
       <c r="AF715" s="1"/>
     </row>
-    <row r="716" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -25521,7 +25521,7 @@
       <c r="AE716" s="1"/>
       <c r="AF716" s="1"/>
     </row>
-    <row r="717" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -25555,7 +25555,7 @@
       <c r="AE717" s="1"/>
       <c r="AF717" s="1"/>
     </row>
-    <row r="718" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -25589,7 +25589,7 @@
       <c r="AE718" s="1"/>
       <c r="AF718" s="1"/>
     </row>
-    <row r="719" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -25623,7 +25623,7 @@
       <c r="AE719" s="1"/>
       <c r="AF719" s="1"/>
     </row>
-    <row r="720" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -25657,7 +25657,7 @@
       <c r="AE720" s="1"/>
       <c r="AF720" s="1"/>
     </row>
-    <row r="721" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -25691,7 +25691,7 @@
       <c r="AE721" s="1"/>
       <c r="AF721" s="1"/>
     </row>
-    <row r="722" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -25725,7 +25725,7 @@
       <c r="AE722" s="1"/>
       <c r="AF722" s="1"/>
     </row>
-    <row r="723" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -25759,7 +25759,7 @@
       <c r="AE723" s="1"/>
       <c r="AF723" s="1"/>
     </row>
-    <row r="724" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -25793,7 +25793,7 @@
       <c r="AE724" s="1"/>
       <c r="AF724" s="1"/>
     </row>
-    <row r="725" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -25827,7 +25827,7 @@
       <c r="AE725" s="1"/>
       <c r="AF725" s="1"/>
     </row>
-    <row r="726" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -25861,7 +25861,7 @@
       <c r="AE726" s="1"/>
       <c r="AF726" s="1"/>
     </row>
-    <row r="727" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -25895,7 +25895,7 @@
       <c r="AE727" s="1"/>
       <c r="AF727" s="1"/>
     </row>
-    <row r="728" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -25929,7 +25929,7 @@
       <c r="AE728" s="1"/>
       <c r="AF728" s="1"/>
     </row>
-    <row r="729" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -25963,7 +25963,7 @@
       <c r="AE729" s="1"/>
       <c r="AF729" s="1"/>
     </row>
-    <row r="730" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -25997,7 +25997,7 @@
       <c r="AE730" s="1"/>
       <c r="AF730" s="1"/>
     </row>
-    <row r="731" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -26031,7 +26031,7 @@
       <c r="AE731" s="1"/>
       <c r="AF731" s="1"/>
     </row>
-    <row r="732" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -26065,7 +26065,7 @@
       <c r="AE732" s="1"/>
       <c r="AF732" s="1"/>
     </row>
-    <row r="733" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -26099,7 +26099,7 @@
       <c r="AE733" s="1"/>
       <c r="AF733" s="1"/>
     </row>
-    <row r="734" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -26133,7 +26133,7 @@
       <c r="AE734" s="1"/>
       <c r="AF734" s="1"/>
     </row>
-    <row r="735" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -26167,7 +26167,7 @@
       <c r="AE735" s="1"/>
       <c r="AF735" s="1"/>
     </row>
-    <row r="736" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -26201,7 +26201,7 @@
       <c r="AE736" s="1"/>
       <c r="AF736" s="1"/>
     </row>
-    <row r="737" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -26235,7 +26235,7 @@
       <c r="AE737" s="1"/>
       <c r="AF737" s="1"/>
     </row>
-    <row r="738" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -26269,7 +26269,7 @@
       <c r="AE738" s="1"/>
       <c r="AF738" s="1"/>
     </row>
-    <row r="739" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -26303,7 +26303,7 @@
       <c r="AE739" s="1"/>
       <c r="AF739" s="1"/>
     </row>
-    <row r="740" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -26337,7 +26337,7 @@
       <c r="AE740" s="1"/>
       <c r="AF740" s="1"/>
     </row>
-    <row r="741" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -26371,7 +26371,7 @@
       <c r="AE741" s="1"/>
       <c r="AF741" s="1"/>
     </row>
-    <row r="742" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -26405,7 +26405,7 @@
       <c r="AE742" s="1"/>
       <c r="AF742" s="1"/>
     </row>
-    <row r="743" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -26439,7 +26439,7 @@
       <c r="AE743" s="1"/>
       <c r="AF743" s="1"/>
     </row>
-    <row r="744" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -26473,7 +26473,7 @@
       <c r="AE744" s="1"/>
       <c r="AF744" s="1"/>
     </row>
-    <row r="745" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -26507,7 +26507,7 @@
       <c r="AE745" s="1"/>
       <c r="AF745" s="1"/>
     </row>
-    <row r="746" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -26541,7 +26541,7 @@
       <c r="AE746" s="1"/>
       <c r="AF746" s="1"/>
     </row>
-    <row r="747" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -26575,7 +26575,7 @@
       <c r="AE747" s="1"/>
       <c r="AF747" s="1"/>
     </row>
-    <row r="748" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -26609,7 +26609,7 @@
       <c r="AE748" s="1"/>
       <c r="AF748" s="1"/>
     </row>
-    <row r="749" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -26643,7 +26643,7 @@
       <c r="AE749" s="1"/>
       <c r="AF749" s="1"/>
     </row>
-    <row r="750" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -26677,7 +26677,7 @@
       <c r="AE750" s="1"/>
       <c r="AF750" s="1"/>
     </row>
-    <row r="751" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -26711,7 +26711,7 @@
       <c r="AE751" s="1"/>
       <c r="AF751" s="1"/>
     </row>
-    <row r="752" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -26745,7 +26745,7 @@
       <c r="AE752" s="1"/>
       <c r="AF752" s="1"/>
     </row>
-    <row r="753" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -26779,7 +26779,7 @@
       <c r="AE753" s="1"/>
       <c r="AF753" s="1"/>
     </row>
-    <row r="754" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -26813,7 +26813,7 @@
       <c r="AE754" s="1"/>
       <c r="AF754" s="1"/>
     </row>
-    <row r="755" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -26847,7 +26847,7 @@
       <c r="AE755" s="1"/>
       <c r="AF755" s="1"/>
     </row>
-    <row r="756" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -26881,7 +26881,7 @@
       <c r="AE756" s="1"/>
       <c r="AF756" s="1"/>
     </row>
-    <row r="757" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -26915,7 +26915,7 @@
       <c r="AE757" s="1"/>
       <c r="AF757" s="1"/>
     </row>
-    <row r="758" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -26949,7 +26949,7 @@
       <c r="AE758" s="1"/>
       <c r="AF758" s="1"/>
     </row>
-    <row r="759" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -26983,7 +26983,7 @@
       <c r="AE759" s="1"/>
       <c r="AF759" s="1"/>
     </row>
-    <row r="760" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -27017,7 +27017,7 @@
       <c r="AE760" s="1"/>
       <c r="AF760" s="1"/>
     </row>
-    <row r="761" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -27051,7 +27051,7 @@
       <c r="AE761" s="1"/>
       <c r="AF761" s="1"/>
     </row>
-    <row r="762" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -27085,7 +27085,7 @@
       <c r="AE762" s="1"/>
       <c r="AF762" s="1"/>
     </row>
-    <row r="763" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -27119,7 +27119,7 @@
       <c r="AE763" s="1"/>
       <c r="AF763" s="1"/>
     </row>
-    <row r="764" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -27153,7 +27153,7 @@
       <c r="AE764" s="1"/>
       <c r="AF764" s="1"/>
     </row>
-    <row r="765" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -27187,7 +27187,7 @@
       <c r="AE765" s="1"/>
       <c r="AF765" s="1"/>
     </row>
-    <row r="766" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -27221,7 +27221,7 @@
       <c r="AE766" s="1"/>
       <c r="AF766" s="1"/>
     </row>
-    <row r="767" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -27255,7 +27255,7 @@
       <c r="AE767" s="1"/>
       <c r="AF767" s="1"/>
     </row>
-    <row r="768" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -27289,7 +27289,7 @@
       <c r="AE768" s="1"/>
       <c r="AF768" s="1"/>
     </row>
-    <row r="769" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -27323,7 +27323,7 @@
       <c r="AE769" s="1"/>
       <c r="AF769" s="1"/>
     </row>
-    <row r="770" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -27357,7 +27357,7 @@
       <c r="AE770" s="1"/>
       <c r="AF770" s="1"/>
     </row>
-    <row r="771" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -27391,7 +27391,7 @@
       <c r="AE771" s="1"/>
       <c r="AF771" s="1"/>
     </row>
-    <row r="772" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -27425,7 +27425,7 @@
       <c r="AE772" s="1"/>
       <c r="AF772" s="1"/>
     </row>
-    <row r="773" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -27459,7 +27459,7 @@
       <c r="AE773" s="1"/>
       <c r="AF773" s="1"/>
     </row>
-    <row r="774" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -27493,7 +27493,7 @@
       <c r="AE774" s="1"/>
       <c r="AF774" s="1"/>
     </row>
-    <row r="775" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -27527,7 +27527,7 @@
       <c r="AE775" s="1"/>
       <c r="AF775" s="1"/>
     </row>
-    <row r="776" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -27561,7 +27561,7 @@
       <c r="AE776" s="1"/>
       <c r="AF776" s="1"/>
     </row>
-    <row r="777" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -27595,7 +27595,7 @@
       <c r="AE777" s="1"/>
       <c r="AF777" s="1"/>
     </row>
-    <row r="778" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -27629,7 +27629,7 @@
       <c r="AE778" s="1"/>
       <c r="AF778" s="1"/>
     </row>
-    <row r="779" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -27663,7 +27663,7 @@
       <c r="AE779" s="1"/>
       <c r="AF779" s="1"/>
     </row>
-    <row r="780" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -27697,7 +27697,7 @@
       <c r="AE780" s="1"/>
       <c r="AF780" s="1"/>
     </row>
-    <row r="781" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -27731,7 +27731,7 @@
       <c r="AE781" s="1"/>
       <c r="AF781" s="1"/>
     </row>
-    <row r="782" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -27765,7 +27765,7 @@
       <c r="AE782" s="1"/>
       <c r="AF782" s="1"/>
     </row>
-    <row r="783" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -27799,7 +27799,7 @@
       <c r="AE783" s="1"/>
       <c r="AF783" s="1"/>
     </row>
-    <row r="784" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -27833,7 +27833,7 @@
       <c r="AE784" s="1"/>
       <c r="AF784" s="1"/>
     </row>
-    <row r="785" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -27867,7 +27867,7 @@
       <c r="AE785" s="1"/>
       <c r="AF785" s="1"/>
     </row>
-    <row r="786" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -27901,7 +27901,7 @@
       <c r="AE786" s="1"/>
       <c r="AF786" s="1"/>
     </row>
-    <row r="787" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -27935,7 +27935,7 @@
       <c r="AE787" s="1"/>
       <c r="AF787" s="1"/>
     </row>
-    <row r="788" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -27969,7 +27969,7 @@
       <c r="AE788" s="1"/>
       <c r="AF788" s="1"/>
     </row>
-    <row r="789" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -28003,7 +28003,7 @@
       <c r="AE789" s="1"/>
       <c r="AF789" s="1"/>
     </row>
-    <row r="790" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -28037,7 +28037,7 @@
       <c r="AE790" s="1"/>
       <c r="AF790" s="1"/>
     </row>
-    <row r="791" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -28071,7 +28071,7 @@
       <c r="AE791" s="1"/>
       <c r="AF791" s="1"/>
     </row>
-    <row r="792" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -28105,7 +28105,7 @@
       <c r="AE792" s="1"/>
       <c r="AF792" s="1"/>
     </row>
-    <row r="793" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -28139,7 +28139,7 @@
       <c r="AE793" s="1"/>
       <c r="AF793" s="1"/>
     </row>
-    <row r="794" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -28173,7 +28173,7 @@
       <c r="AE794" s="1"/>
       <c r="AF794" s="1"/>
     </row>
-    <row r="795" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -28207,7 +28207,7 @@
       <c r="AE795" s="1"/>
       <c r="AF795" s="1"/>
     </row>
-    <row r="796" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -28241,7 +28241,7 @@
       <c r="AE796" s="1"/>
       <c r="AF796" s="1"/>
     </row>
-    <row r="797" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -28275,7 +28275,7 @@
       <c r="AE797" s="1"/>
       <c r="AF797" s="1"/>
     </row>
-    <row r="798" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -28309,7 +28309,7 @@
       <c r="AE798" s="1"/>
       <c r="AF798" s="1"/>
     </row>
-    <row r="799" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -28343,7 +28343,7 @@
       <c r="AE799" s="1"/>
       <c r="AF799" s="1"/>
     </row>
-    <row r="800" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -28377,7 +28377,7 @@
       <c r="AE800" s="1"/>
       <c r="AF800" s="1"/>
     </row>
-    <row r="801" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -28411,7 +28411,7 @@
       <c r="AE801" s="1"/>
       <c r="AF801" s="1"/>
     </row>
-    <row r="802" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -28445,7 +28445,7 @@
       <c r="AE802" s="1"/>
       <c r="AF802" s="1"/>
     </row>
-    <row r="803" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -28479,7 +28479,7 @@
       <c r="AE803" s="1"/>
       <c r="AF803" s="1"/>
     </row>
-    <row r="804" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -28513,7 +28513,7 @@
       <c r="AE804" s="1"/>
       <c r="AF804" s="1"/>
     </row>
-    <row r="805" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -28547,7 +28547,7 @@
       <c r="AE805" s="1"/>
       <c r="AF805" s="1"/>
     </row>
-    <row r="806" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -28581,7 +28581,7 @@
       <c r="AE806" s="1"/>
       <c r="AF806" s="1"/>
     </row>
-    <row r="807" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -28615,7 +28615,7 @@
       <c r="AE807" s="1"/>
       <c r="AF807" s="1"/>
     </row>
-    <row r="808" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -28649,7 +28649,7 @@
       <c r="AE808" s="1"/>
       <c r="AF808" s="1"/>
     </row>
-    <row r="809" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -28683,7 +28683,7 @@
       <c r="AE809" s="1"/>
       <c r="AF809" s="1"/>
     </row>
-    <row r="810" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -28717,7 +28717,7 @@
       <c r="AE810" s="1"/>
       <c r="AF810" s="1"/>
     </row>
-    <row r="811" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -28751,7 +28751,7 @@
       <c r="AE811" s="1"/>
       <c r="AF811" s="1"/>
     </row>
-    <row r="812" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -28785,7 +28785,7 @@
       <c r="AE812" s="1"/>
       <c r="AF812" s="1"/>
     </row>
-    <row r="813" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -28819,7 +28819,7 @@
       <c r="AE813" s="1"/>
       <c r="AF813" s="1"/>
     </row>
-    <row r="814" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -28853,7 +28853,7 @@
       <c r="AE814" s="1"/>
       <c r="AF814" s="1"/>
     </row>
-    <row r="815" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -28887,7 +28887,7 @@
       <c r="AE815" s="1"/>
       <c r="AF815" s="1"/>
     </row>
-    <row r="816" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -28921,7 +28921,7 @@
       <c r="AE816" s="1"/>
       <c r="AF816" s="1"/>
     </row>
-    <row r="817" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -28955,7 +28955,7 @@
       <c r="AE817" s="1"/>
       <c r="AF817" s="1"/>
     </row>
-    <row r="818" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -28989,7 +28989,7 @@
       <c r="AE818" s="1"/>
       <c r="AF818" s="1"/>
     </row>
-    <row r="819" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -29023,7 +29023,7 @@
       <c r="AE819" s="1"/>
       <c r="AF819" s="1"/>
     </row>
-    <row r="820" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -29057,7 +29057,7 @@
       <c r="AE820" s="1"/>
       <c r="AF820" s="1"/>
     </row>
-    <row r="821" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -29091,7 +29091,7 @@
       <c r="AE821" s="1"/>
       <c r="AF821" s="1"/>
     </row>
-    <row r="822" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -29125,7 +29125,7 @@
       <c r="AE822" s="1"/>
       <c r="AF822" s="1"/>
     </row>
-    <row r="823" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -29159,7 +29159,7 @@
       <c r="AE823" s="1"/>
       <c r="AF823" s="1"/>
     </row>
-    <row r="824" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -29193,7 +29193,7 @@
       <c r="AE824" s="1"/>
       <c r="AF824" s="1"/>
     </row>
-    <row r="825" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -29227,7 +29227,7 @@
       <c r="AE825" s="1"/>
       <c r="AF825" s="1"/>
     </row>
-    <row r="826" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -29261,7 +29261,7 @@
       <c r="AE826" s="1"/>
       <c r="AF826" s="1"/>
     </row>
-    <row r="827" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -29295,7 +29295,7 @@
       <c r="AE827" s="1"/>
       <c r="AF827" s="1"/>
     </row>
-    <row r="828" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -29329,7 +29329,7 @@
       <c r="AE828" s="1"/>
       <c r="AF828" s="1"/>
     </row>
-    <row r="829" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -29363,7 +29363,7 @@
       <c r="AE829" s="1"/>
       <c r="AF829" s="1"/>
     </row>
-    <row r="830" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -29397,7 +29397,7 @@
       <c r="AE830" s="1"/>
       <c r="AF830" s="1"/>
     </row>
-    <row r="831" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -29431,7 +29431,7 @@
       <c r="AE831" s="1"/>
       <c r="AF831" s="1"/>
     </row>
-    <row r="832" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -29465,7 +29465,7 @@
       <c r="AE832" s="1"/>
       <c r="AF832" s="1"/>
     </row>
-    <row r="833" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -29499,7 +29499,7 @@
       <c r="AE833" s="1"/>
       <c r="AF833" s="1"/>
     </row>
-    <row r="834" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -29533,7 +29533,7 @@
       <c r="AE834" s="1"/>
       <c r="AF834" s="1"/>
     </row>
-    <row r="835" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -29567,7 +29567,7 @@
       <c r="AE835" s="1"/>
       <c r="AF835" s="1"/>
     </row>
-    <row r="836" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -29601,7 +29601,7 @@
       <c r="AE836" s="1"/>
       <c r="AF836" s="1"/>
     </row>
-    <row r="837" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -29635,7 +29635,7 @@
       <c r="AE837" s="1"/>
       <c r="AF837" s="1"/>
     </row>
-    <row r="838" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -29669,7 +29669,7 @@
       <c r="AE838" s="1"/>
       <c r="AF838" s="1"/>
     </row>
-    <row r="839" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -29703,7 +29703,7 @@
       <c r="AE839" s="1"/>
       <c r="AF839" s="1"/>
     </row>
-    <row r="840" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -29737,7 +29737,7 @@
       <c r="AE840" s="1"/>
       <c r="AF840" s="1"/>
     </row>
-    <row r="841" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -29771,7 +29771,7 @@
       <c r="AE841" s="1"/>
       <c r="AF841" s="1"/>
     </row>
-    <row r="842" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -29805,7 +29805,7 @@
       <c r="AE842" s="1"/>
       <c r="AF842" s="1"/>
     </row>
-    <row r="843" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -29839,7 +29839,7 @@
       <c r="AE843" s="1"/>
       <c r="AF843" s="1"/>
     </row>
-    <row r="844" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -29873,7 +29873,7 @@
       <c r="AE844" s="1"/>
       <c r="AF844" s="1"/>
     </row>
-    <row r="845" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -29907,7 +29907,7 @@
       <c r="AE845" s="1"/>
       <c r="AF845" s="1"/>
     </row>
-    <row r="846" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -29941,7 +29941,7 @@
       <c r="AE846" s="1"/>
       <c r="AF846" s="1"/>
     </row>
-    <row r="847" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -29975,7 +29975,7 @@
       <c r="AE847" s="1"/>
       <c r="AF847" s="1"/>
     </row>
-    <row r="848" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -30009,7 +30009,7 @@
       <c r="AE848" s="1"/>
       <c r="AF848" s="1"/>
     </row>
-    <row r="849" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -30043,7 +30043,7 @@
       <c r="AE849" s="1"/>
       <c r="AF849" s="1"/>
     </row>
-    <row r="850" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -30077,7 +30077,7 @@
       <c r="AE850" s="1"/>
       <c r="AF850" s="1"/>
     </row>
-    <row r="851" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -30111,7 +30111,7 @@
       <c r="AE851" s="1"/>
       <c r="AF851" s="1"/>
     </row>
-    <row r="852" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -30145,7 +30145,7 @@
       <c r="AE852" s="1"/>
       <c r="AF852" s="1"/>
     </row>
-    <row r="853" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -30179,7 +30179,7 @@
       <c r="AE853" s="1"/>
       <c r="AF853" s="1"/>
     </row>
-    <row r="854" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -30213,7 +30213,7 @@
       <c r="AE854" s="1"/>
       <c r="AF854" s="1"/>
     </row>
-    <row r="855" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -30247,7 +30247,7 @@
       <c r="AE855" s="1"/>
       <c r="AF855" s="1"/>
     </row>
-    <row r="856" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -30281,7 +30281,7 @@
       <c r="AE856" s="1"/>
       <c r="AF856" s="1"/>
     </row>
-    <row r="857" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -30315,7 +30315,7 @@
       <c r="AE857" s="1"/>
       <c r="AF857" s="1"/>
     </row>
-    <row r="858" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -30349,7 +30349,7 @@
       <c r="AE858" s="1"/>
       <c r="AF858" s="1"/>
     </row>
-    <row r="859" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -30383,7 +30383,7 @@
       <c r="AE859" s="1"/>
       <c r="AF859" s="1"/>
     </row>
-    <row r="860" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -30417,7 +30417,7 @@
       <c r="AE860" s="1"/>
       <c r="AF860" s="1"/>
     </row>
-    <row r="861" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -30451,7 +30451,7 @@
       <c r="AE861" s="1"/>
       <c r="AF861" s="1"/>
     </row>
-    <row r="862" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -30485,7 +30485,7 @@
       <c r="AE862" s="1"/>
       <c r="AF862" s="1"/>
     </row>
-    <row r="863" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -30519,7 +30519,7 @@
       <c r="AE863" s="1"/>
       <c r="AF863" s="1"/>
     </row>
-    <row r="864" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -30553,7 +30553,7 @@
       <c r="AE864" s="1"/>
       <c r="AF864" s="1"/>
     </row>
-    <row r="865" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -30587,7 +30587,7 @@
       <c r="AE865" s="1"/>
       <c r="AF865" s="1"/>
     </row>
-    <row r="866" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -30621,7 +30621,7 @@
       <c r="AE866" s="1"/>
       <c r="AF866" s="1"/>
     </row>
-    <row r="867" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -30655,7 +30655,7 @@
       <c r="AE867" s="1"/>
       <c r="AF867" s="1"/>
     </row>
-    <row r="868" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -30689,7 +30689,7 @@
       <c r="AE868" s="1"/>
       <c r="AF868" s="1"/>
     </row>
-    <row r="869" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -30723,7 +30723,7 @@
       <c r="AE869" s="1"/>
       <c r="AF869" s="1"/>
     </row>
-    <row r="870" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -30757,7 +30757,7 @@
       <c r="AE870" s="1"/>
       <c r="AF870" s="1"/>
     </row>
-    <row r="871" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -30791,7 +30791,7 @@
       <c r="AE871" s="1"/>
       <c r="AF871" s="1"/>
     </row>
-    <row r="872" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -30825,7 +30825,7 @@
       <c r="AE872" s="1"/>
       <c r="AF872" s="1"/>
     </row>
-    <row r="873" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -30859,7 +30859,7 @@
       <c r="AE873" s="1"/>
       <c r="AF873" s="1"/>
     </row>
-    <row r="874" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -30893,7 +30893,7 @@
       <c r="AE874" s="1"/>
       <c r="AF874" s="1"/>
     </row>
-    <row r="875" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -30927,7 +30927,7 @@
       <c r="AE875" s="1"/>
       <c r="AF875" s="1"/>
     </row>
-    <row r="876" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -30961,7 +30961,7 @@
       <c r="AE876" s="1"/>
       <c r="AF876" s="1"/>
     </row>
-    <row r="877" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -30995,7 +30995,7 @@
       <c r="AE877" s="1"/>
       <c r="AF877" s="1"/>
     </row>
-    <row r="878" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -31029,7 +31029,7 @@
       <c r="AE878" s="1"/>
       <c r="AF878" s="1"/>
     </row>
-    <row r="879" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -31063,7 +31063,7 @@
       <c r="AE879" s="1"/>
       <c r="AF879" s="1"/>
     </row>
-    <row r="880" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -31097,7 +31097,7 @@
       <c r="AE880" s="1"/>
       <c r="AF880" s="1"/>
     </row>
-    <row r="881" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -31131,7 +31131,7 @@
       <c r="AE881" s="1"/>
       <c r="AF881" s="1"/>
     </row>
-    <row r="882" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -31165,7 +31165,7 @@
       <c r="AE882" s="1"/>
       <c r="AF882" s="1"/>
     </row>
-    <row r="883" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -31199,7 +31199,7 @@
       <c r="AE883" s="1"/>
       <c r="AF883" s="1"/>
     </row>
-    <row r="884" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -31233,7 +31233,7 @@
       <c r="AE884" s="1"/>
       <c r="AF884" s="1"/>
     </row>
-    <row r="885" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -31267,7 +31267,7 @@
       <c r="AE885" s="1"/>
       <c r="AF885" s="1"/>
     </row>
-    <row r="886" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -31301,7 +31301,7 @@
       <c r="AE886" s="1"/>
       <c r="AF886" s="1"/>
     </row>
-    <row r="887" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -31335,7 +31335,7 @@
       <c r="AE887" s="1"/>
       <c r="AF887" s="1"/>
     </row>
-    <row r="888" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -31369,7 +31369,7 @@
       <c r="AE888" s="1"/>
       <c r="AF888" s="1"/>
     </row>
-    <row r="889" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -31403,7 +31403,7 @@
       <c r="AE889" s="1"/>
       <c r="AF889" s="1"/>
     </row>
-    <row r="890" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -31437,7 +31437,7 @@
       <c r="AE890" s="1"/>
       <c r="AF890" s="1"/>
     </row>
-    <row r="891" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -31471,7 +31471,7 @@
       <c r="AE891" s="1"/>
       <c r="AF891" s="1"/>
     </row>
-    <row r="892" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -31505,7 +31505,7 @@
       <c r="AE892" s="1"/>
       <c r="AF892" s="1"/>
     </row>
-    <row r="893" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -31539,7 +31539,7 @@
       <c r="AE893" s="1"/>
       <c r="AF893" s="1"/>
     </row>
-    <row r="894" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -31573,7 +31573,7 @@
       <c r="AE894" s="1"/>
       <c r="AF894" s="1"/>
     </row>
-    <row r="895" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -31607,7 +31607,7 @@
       <c r="AE895" s="1"/>
       <c r="AF895" s="1"/>
     </row>
-    <row r="896" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -31641,7 +31641,7 @@
       <c r="AE896" s="1"/>
       <c r="AF896" s="1"/>
     </row>
-    <row r="897" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -31675,7 +31675,7 @@
       <c r="AE897" s="1"/>
       <c r="AF897" s="1"/>
     </row>
-    <row r="898" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -31709,7 +31709,7 @@
       <c r="AE898" s="1"/>
       <c r="AF898" s="1"/>
     </row>
-    <row r="899" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -31743,7 +31743,7 @@
       <c r="AE899" s="1"/>
       <c r="AF899" s="1"/>
     </row>
-    <row r="900" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -31777,7 +31777,7 @@
       <c r="AE900" s="1"/>
       <c r="AF900" s="1"/>
     </row>
-    <row r="901" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -31811,7 +31811,7 @@
       <c r="AE901" s="1"/>
       <c r="AF901" s="1"/>
     </row>
-    <row r="902" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -31845,7 +31845,7 @@
       <c r="AE902" s="1"/>
       <c r="AF902" s="1"/>
     </row>
-    <row r="903" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -31879,7 +31879,7 @@
       <c r="AE903" s="1"/>
       <c r="AF903" s="1"/>
     </row>
-    <row r="904" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -31913,7 +31913,7 @@
       <c r="AE904" s="1"/>
       <c r="AF904" s="1"/>
     </row>
-    <row r="905" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -31947,7 +31947,7 @@
       <c r="AE905" s="1"/>
       <c r="AF905" s="1"/>
     </row>
-    <row r="906" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -31981,7 +31981,7 @@
       <c r="AE906" s="1"/>
       <c r="AF906" s="1"/>
     </row>
-    <row r="907" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -32015,7 +32015,7 @@
       <c r="AE907" s="1"/>
       <c r="AF907" s="1"/>
     </row>
-    <row r="908" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -32049,7 +32049,7 @@
       <c r="AE908" s="1"/>
       <c r="AF908" s="1"/>
     </row>
-    <row r="909" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -32083,7 +32083,7 @@
       <c r="AE909" s="1"/>
       <c r="AF909" s="1"/>
     </row>
-    <row r="910" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -32117,7 +32117,7 @@
       <c r="AE910" s="1"/>
       <c r="AF910" s="1"/>
     </row>
-    <row r="911" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -32151,7 +32151,7 @@
       <c r="AE911" s="1"/>
       <c r="AF911" s="1"/>
     </row>
-    <row r="912" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -32185,7 +32185,7 @@
       <c r="AE912" s="1"/>
       <c r="AF912" s="1"/>
     </row>
-    <row r="913" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -32219,7 +32219,7 @@
       <c r="AE913" s="1"/>
       <c r="AF913" s="1"/>
     </row>
-    <row r="914" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -32253,7 +32253,7 @@
       <c r="AE914" s="1"/>
       <c r="AF914" s="1"/>
     </row>
-    <row r="915" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -32287,7 +32287,7 @@
       <c r="AE915" s="1"/>
       <c r="AF915" s="1"/>
     </row>
-    <row r="916" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -32321,7 +32321,7 @@
       <c r="AE916" s="1"/>
       <c r="AF916" s="1"/>
     </row>
-    <row r="917" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -32355,7 +32355,7 @@
       <c r="AE917" s="1"/>
       <c r="AF917" s="1"/>
     </row>
-    <row r="918" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -32389,7 +32389,7 @@
       <c r="AE918" s="1"/>
       <c r="AF918" s="1"/>
     </row>
-    <row r="919" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -32423,7 +32423,7 @@
       <c r="AE919" s="1"/>
       <c r="AF919" s="1"/>
     </row>
-    <row r="920" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -32457,7 +32457,7 @@
       <c r="AE920" s="1"/>
       <c r="AF920" s="1"/>
     </row>
-    <row r="921" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -32491,7 +32491,7 @@
       <c r="AE921" s="1"/>
       <c r="AF921" s="1"/>
     </row>
-    <row r="922" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -32525,7 +32525,7 @@
       <c r="AE922" s="1"/>
       <c r="AF922" s="1"/>
     </row>
-    <row r="923" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -32559,7 +32559,7 @@
       <c r="AE923" s="1"/>
       <c r="AF923" s="1"/>
     </row>
-    <row r="924" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -32593,7 +32593,7 @@
       <c r="AE924" s="1"/>
       <c r="AF924" s="1"/>
     </row>
-    <row r="925" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -32627,7 +32627,7 @@
       <c r="AE925" s="1"/>
       <c r="AF925" s="1"/>
     </row>
-    <row r="926" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -32661,7 +32661,7 @@
       <c r="AE926" s="1"/>
       <c r="AF926" s="1"/>
     </row>
-    <row r="927" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -32695,7 +32695,7 @@
       <c r="AE927" s="1"/>
       <c r="AF927" s="1"/>
     </row>
-    <row r="928" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -32729,7 +32729,7 @@
       <c r="AE928" s="1"/>
       <c r="AF928" s="1"/>
     </row>
-    <row r="929" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -32763,7 +32763,7 @@
       <c r="AE929" s="1"/>
       <c r="AF929" s="1"/>
     </row>
-    <row r="930" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -32797,7 +32797,7 @@
       <c r="AE930" s="1"/>
       <c r="AF930" s="1"/>
     </row>
-    <row r="931" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -32831,7 +32831,7 @@
       <c r="AE931" s="1"/>
       <c r="AF931" s="1"/>
     </row>
-    <row r="932" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -32865,7 +32865,7 @@
       <c r="AE932" s="1"/>
       <c r="AF932" s="1"/>
     </row>
-    <row r="933" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -32899,7 +32899,7 @@
       <c r="AE933" s="1"/>
       <c r="AF933" s="1"/>
     </row>
-    <row r="934" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -32933,7 +32933,7 @@
       <c r="AE934" s="1"/>
       <c r="AF934" s="1"/>
     </row>
-    <row r="935" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -32967,7 +32967,7 @@
       <c r="AE935" s="1"/>
       <c r="AF935" s="1"/>
     </row>
-    <row r="936" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -33001,7 +33001,7 @@
       <c r="AE936" s="1"/>
       <c r="AF936" s="1"/>
     </row>
-    <row r="937" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -33035,7 +33035,7 @@
       <c r="AE937" s="1"/>
       <c r="AF937" s="1"/>
     </row>
-    <row r="938" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -33069,7 +33069,7 @@
       <c r="AE938" s="1"/>
       <c r="AF938" s="1"/>
     </row>
-    <row r="939" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -33103,7 +33103,7 @@
       <c r="AE939" s="1"/>
       <c r="AF939" s="1"/>
     </row>
-    <row r="940" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -33137,7 +33137,7 @@
       <c r="AE940" s="1"/>
       <c r="AF940" s="1"/>
     </row>
-    <row r="941" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -33171,7 +33171,7 @@
       <c r="AE941" s="1"/>
       <c r="AF941" s="1"/>
     </row>
-    <row r="942" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -33205,7 +33205,7 @@
       <c r="AE942" s="1"/>
       <c r="AF942" s="1"/>
     </row>
-    <row r="943" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -33239,7 +33239,7 @@
       <c r="AE943" s="1"/>
       <c r="AF943" s="1"/>
     </row>
-    <row r="944" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -33273,7 +33273,7 @@
       <c r="AE944" s="1"/>
       <c r="AF944" s="1"/>
     </row>
-    <row r="945" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -33307,7 +33307,7 @@
       <c r="AE945" s="1"/>
       <c r="AF945" s="1"/>
     </row>
-    <row r="946" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -33341,7 +33341,7 @@
       <c r="AE946" s="1"/>
       <c r="AF946" s="1"/>
     </row>
-    <row r="947" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -33375,7 +33375,7 @@
       <c r="AE947" s="1"/>
       <c r="AF947" s="1"/>
     </row>
-    <row r="948" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -33409,7 +33409,7 @@
       <c r="AE948" s="1"/>
       <c r="AF948" s="1"/>
     </row>
-    <row r="949" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -33443,7 +33443,7 @@
       <c r="AE949" s="1"/>
       <c r="AF949" s="1"/>
     </row>
-    <row r="950" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -33477,7 +33477,7 @@
       <c r="AE950" s="1"/>
       <c r="AF950" s="1"/>
     </row>
-    <row r="951" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -33511,7 +33511,7 @@
       <c r="AE951" s="1"/>
       <c r="AF951" s="1"/>
     </row>
-    <row r="952" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -33545,7 +33545,7 @@
       <c r="AE952" s="1"/>
       <c r="AF952" s="1"/>
     </row>
-    <row r="953" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -33579,7 +33579,7 @@
       <c r="AE953" s="1"/>
       <c r="AF953" s="1"/>
     </row>
-    <row r="954" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -33613,7 +33613,7 @@
       <c r="AE954" s="1"/>
       <c r="AF954" s="1"/>
     </row>
-    <row r="955" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -33647,7 +33647,7 @@
       <c r="AE955" s="1"/>
       <c r="AF955" s="1"/>
     </row>
-    <row r="956" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -33681,7 +33681,7 @@
       <c r="AE956" s="1"/>
       <c r="AF956" s="1"/>
     </row>
-    <row r="957" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -33715,7 +33715,7 @@
       <c r="AE957" s="1"/>
       <c r="AF957" s="1"/>
     </row>
-    <row r="958" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -33749,7 +33749,7 @@
       <c r="AE958" s="1"/>
       <c r="AF958" s="1"/>
     </row>
-    <row r="959" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -33783,7 +33783,7 @@
       <c r="AE959" s="1"/>
       <c r="AF959" s="1"/>
     </row>
-    <row r="960" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -33817,7 +33817,7 @@
       <c r="AE960" s="1"/>
       <c r="AF960" s="1"/>
     </row>
-    <row r="961" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -33851,7 +33851,7 @@
       <c r="AE961" s="1"/>
       <c r="AF961" s="1"/>
     </row>
-    <row r="962" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -33885,7 +33885,7 @@
       <c r="AE962" s="1"/>
       <c r="AF962" s="1"/>
     </row>
-    <row r="963" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -33919,7 +33919,7 @@
       <c r="AE963" s="1"/>
       <c r="AF963" s="1"/>
     </row>
-    <row r="964" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -33953,7 +33953,7 @@
       <c r="AE964" s="1"/>
       <c r="AF964" s="1"/>
     </row>
-    <row r="965" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -33987,7 +33987,7 @@
       <c r="AE965" s="1"/>
       <c r="AF965" s="1"/>
     </row>
-    <row r="966" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -34021,7 +34021,7 @@
       <c r="AE966" s="1"/>
       <c r="AF966" s="1"/>
     </row>
-    <row r="967" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -34055,7 +34055,7 @@
       <c r="AE967" s="1"/>
       <c r="AF967" s="1"/>
     </row>
-    <row r="968" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -34089,7 +34089,7 @@
       <c r="AE968" s="1"/>
       <c r="AF968" s="1"/>
     </row>
-    <row r="969" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -34123,7 +34123,7 @@
       <c r="AE969" s="1"/>
       <c r="AF969" s="1"/>
     </row>
-    <row r="970" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -34157,7 +34157,7 @@
       <c r="AE970" s="1"/>
       <c r="AF970" s="1"/>
     </row>
-    <row r="971" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -34191,7 +34191,7 @@
       <c r="AE971" s="1"/>
       <c r="AF971" s="1"/>
     </row>
-    <row r="972" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -34225,7 +34225,7 @@
       <c r="AE972" s="1"/>
       <c r="AF972" s="1"/>
     </row>
-    <row r="973" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -34259,7 +34259,7 @@
       <c r="AE973" s="1"/>
       <c r="AF973" s="1"/>
     </row>
-    <row r="974" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -34293,7 +34293,7 @@
       <c r="AE974" s="1"/>
       <c r="AF974" s="1"/>
     </row>
-    <row r="975" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -34327,7 +34327,7 @@
       <c r="AE975" s="1"/>
       <c r="AF975" s="1"/>
     </row>
-    <row r="976" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -34361,7 +34361,7 @@
       <c r="AE976" s="1"/>
       <c r="AF976" s="1"/>
     </row>
-    <row r="977" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -34395,7 +34395,7 @@
       <c r="AE977" s="1"/>
       <c r="AF977" s="1"/>
     </row>
-    <row r="978" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -34429,7 +34429,7 @@
       <c r="AE978" s="1"/>
       <c r="AF978" s="1"/>
     </row>
-    <row r="979" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -34463,7 +34463,7 @@
       <c r="AE979" s="1"/>
       <c r="AF979" s="1"/>
     </row>
-    <row r="980" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -34497,7 +34497,7 @@
       <c r="AE980" s="1"/>
       <c r="AF980" s="1"/>
     </row>
-    <row r="981" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -34531,7 +34531,7 @@
       <c r="AE981" s="1"/>
       <c r="AF981" s="1"/>
     </row>
-    <row r="982" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -34565,7 +34565,7 @@
       <c r="AE982" s="1"/>
       <c r="AF982" s="1"/>
     </row>
-    <row r="983" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -34599,7 +34599,7 @@
       <c r="AE983" s="1"/>
       <c r="AF983" s="1"/>
     </row>
-    <row r="984" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -34633,7 +34633,7 @@
       <c r="AE984" s="1"/>
       <c r="AF984" s="1"/>
     </row>
-    <row r="985" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -34667,7 +34667,7 @@
       <c r="AE985" s="1"/>
       <c r="AF985" s="1"/>
     </row>
-    <row r="986" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -34701,7 +34701,7 @@
       <c r="AE986" s="1"/>
       <c r="AF986" s="1"/>
     </row>
-    <row r="987" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -34735,7 +34735,7 @@
       <c r="AE987" s="1"/>
       <c r="AF987" s="1"/>
     </row>
-    <row r="988" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -34769,7 +34769,7 @@
       <c r="AE988" s="1"/>
       <c r="AF988" s="1"/>
     </row>
-    <row r="989" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -34803,7 +34803,7 @@
       <c r="AE989" s="1"/>
       <c r="AF989" s="1"/>
     </row>
-    <row r="990" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -34837,7 +34837,7 @@
       <c r="AE990" s="1"/>
       <c r="AF990" s="1"/>
     </row>
-    <row r="991" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -34871,7 +34871,7 @@
       <c r="AE991" s="1"/>
       <c r="AF991" s="1"/>
     </row>
-    <row r="992" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -34905,7 +34905,7 @@
       <c r="AE992" s="1"/>
       <c r="AF992" s="1"/>
     </row>
-    <row r="993" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -34939,7 +34939,7 @@
       <c r="AE993" s="1"/>
       <c r="AF993" s="1"/>
     </row>
-    <row r="994" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -34973,7 +34973,7 @@
       <c r="AE994" s="1"/>
       <c r="AF994" s="1"/>
     </row>
-    <row r="995" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -35007,7 +35007,7 @@
       <c r="AE995" s="1"/>
       <c r="AF995" s="1"/>
     </row>
-    <row r="996" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -35041,7 +35041,7 @@
       <c r="AE996" s="1"/>
       <c r="AF996" s="1"/>
     </row>
-    <row r="997" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -35075,7 +35075,7 @@
       <c r="AE997" s="1"/>
       <c r="AF997" s="1"/>
     </row>
-    <row r="998" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -35109,7 +35109,7 @@
       <c r="AE998" s="1"/>
       <c r="AF998" s="1"/>
     </row>
-    <row r="999" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -35143,7 +35143,7 @@
       <c r="AE999" s="1"/>
       <c r="AF999" s="1"/>
     </row>
-    <row r="1000" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
@@ -35187,6 +35187,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -35403,12 +35409,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -35419,6 +35419,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35437,23 +35454,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
   <ds:schemaRefs>

--- a/packages/server/src/arpa_reporter/data/treasury/project215218BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project215218BulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 1 2024 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 2 2024 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEB95EB-BBBE-43E0-B52E-E035BF5F96F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1224E393-B8B8-4D06-B3D3-7C3FE5A0B210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,12 +440,6 @@
     <t>Version: 2023.5.17</t>
   </si>
   <si>
-    <t>Q1_2024_Obligations__c</t>
-  </si>
-  <si>
-    <t>Q1_2024_Expenditures__c</t>
-  </si>
-  <si>
     <t>Project_Start_Date__c</t>
   </si>
   <si>
@@ -466,6 +460,12 @@
     <t>REQUIRED if the project has completed. 
 REQUIRED if you selected "Completed" for the "Status to Completion" question. 
 End date  Valid Date - (MM/DD/YYYY)</t>
+  </si>
+  <si>
+    <t>Q2_2024_Obligations__c</t>
+  </si>
+  <si>
+    <t>Q2_2024_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -1090,10 +1090,10 @@
         <v>85</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>6</v>
@@ -1105,10 +1105,10 @@
         <v>8</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>30</v>
@@ -1290,10 +1290,10 @@
         <v>86</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>14</v>
@@ -1390,10 +1390,10 @@
         <v>88</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>78</v>
@@ -37223,15 +37223,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -37448,6 +37439,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -37455,14 +37455,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37477,6 +37469,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/packages/server/src/arpa_reporter/data/treasury/project215218BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project215218BulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 2 2024 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd93f4fa04466af4/Desktop/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/Quarter 3 2024 Project Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1224E393-B8B8-4D06-B3D3-7C3FE5A0B210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1224E393-B8B8-4D06-B3D3-7C3FE5A0B210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B1B6E62-CE48-41C3-8471-97AF9C928E01}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,10 +462,10 @@
 End date  Valid Date - (MM/DD/YYYY)</t>
   </si>
   <si>
-    <t>Q2_2024_Obligations__c</t>
+    <t>Q3_2024_Obligations__c</t>
   </si>
   <si>
-    <t>Q2_2024_Expenditures__c</t>
+    <t>Q3_2024_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -933,7 +933,7 @@
   <dimension ref="A1:AH1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37223,6 +37223,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -37439,22 +37454,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37471,29 +37496,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/packages/server/src/arpa_reporter/data/treasury/project215218BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project215218BulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd93f4fa04466af4/Desktop/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/Quarter 3 2024 Project Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 4 2024 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1224E393-B8B8-4D06-B3D3-7C3FE5A0B210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B1B6E62-CE48-41C3-8471-97AF9C928E01}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F1FC9D-9C4D-4D51-B3E2-EA4540C53D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,10 +462,10 @@
 End date  Valid Date - (MM/DD/YYYY)</t>
   </si>
   <si>
-    <t>Q3_2024_Obligations__c</t>
+    <t>Q4_2024_Obligations__c</t>
   </si>
   <si>
-    <t>Q3_2024_Expenditures__c</t>
+    <t>Q4_2024_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275FAA55-771D-4D64-A81A-E1231934DFE3}">
   <dimension ref="A1:AH1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37223,21 +37223,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -37454,32 +37439,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37496,4 +37471,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>